--- a/output/time dependant variables/df_time_dependent_variable_values9.xlsx
+++ b/output/time dependant variables/df_time_dependent_variable_values9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>TimeStep</t>
   </si>
@@ -28,67 +28,112 @@
     <t>net1_emissions</t>
   </si>
   <si>
+    <t>net1_inv_cost</t>
+  </si>
+  <si>
+    <t>Q_from_net1</t>
+  </si>
+  <si>
+    <t>P_net1_bat1</t>
+  </si>
+  <si>
+    <t>P_to_net1</t>
+  </si>
+  <si>
+    <t>P_from_net1</t>
+  </si>
+  <si>
+    <t>net1_sell_electric</t>
+  </si>
+  <si>
+    <t>P_net1_demand1</t>
+  </si>
+  <si>
+    <t>Q_net1_demand1</t>
+  </si>
+  <si>
     <t>Q_to_net1</t>
   </si>
   <si>
-    <t>net1_sell_electric</t>
-  </si>
-  <si>
     <t>net1_sell_thermal</t>
   </si>
   <si>
     <t>net1_buy_electric</t>
   </si>
   <si>
-    <t>P_net1_demand1</t>
-  </si>
-  <si>
-    <t>Q_from_net1</t>
-  </si>
-  <si>
-    <t>P_to_net1</t>
-  </si>
-  <si>
-    <t>Q_net1_demand1</t>
-  </si>
-  <si>
-    <t>net1_inv_cost</t>
-  </si>
-  <si>
-    <t>P_from_net1</t>
-  </si>
-  <si>
     <t>net1_buy_thermal</t>
   </si>
   <si>
+    <t>P_from_pv1</t>
+  </si>
+  <si>
+    <t>P_pv1_demand1</t>
+  </si>
+  <si>
+    <t>P_pv1_net1</t>
+  </si>
+  <si>
     <t>pv1_op_cost</t>
   </si>
   <si>
-    <t>P_pv1_demand1</t>
-  </si>
-  <si>
-    <t>P_pv1_net1</t>
-  </si>
-  <si>
     <t>pv1_inv_cost</t>
   </si>
   <si>
-    <t>P_from_pv1</t>
-  </si>
-  <si>
     <t>pv1_emissions</t>
   </si>
   <si>
+    <t>P_pv1_bat1</t>
+  </si>
+  <si>
+    <t>bat1_K_ch</t>
+  </si>
+  <si>
+    <t>bat1_SOC</t>
+  </si>
+  <si>
+    <t>bat1_inv_cost</t>
+  </si>
+  <si>
+    <t>bat1_cumulated_aging</t>
+  </si>
+  <si>
+    <t>bat1_K_dis</t>
+  </si>
+  <si>
+    <t>bat1_SOC_max</t>
+  </si>
+  <si>
+    <t>P_to_bat1</t>
+  </si>
+  <si>
+    <t>P_from_bat1</t>
+  </si>
+  <si>
+    <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>bat1_op_cost</t>
+  </si>
+  <si>
+    <t>P_bat1_demand1</t>
+  </si>
+  <si>
+    <t>bat1_emissions</t>
+  </si>
+  <si>
+    <t>bat1_integer</t>
+  </si>
+  <si>
     <t>total_buy</t>
   </si>
   <si>
+    <t>total_operation_cost</t>
+  </si>
+  <si>
     <t>total_sell</t>
   </si>
   <si>
     <t>total_emissions</t>
-  </si>
-  <si>
-    <t>total_operation_cost</t>
   </si>
 </sst>
 </file>
@@ -446,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,10 +573,55 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:40">
       <c r="A2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -540,75 +630,120 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>303.8557606642344</v>
+        <v>294.7574424769401</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>572.6860481558806</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>145.3223203176773</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>330.2780007219939</v>
+        <v>280.9156980705871</v>
       </c>
       <c r="J2">
-        <v>495.4170010829909</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>280.9156980705871</v>
       </c>
       <c r="L2">
-        <v>495.4170010829909</v>
+        <v>572.6860481558806</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>330.2780007219939</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>173.3959503790468</v>
+        <v>137.6486920545877</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>171.8058144467642</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.8750006999999999</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.8750006999999999</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>318.7182706967241</v>
+        <v>0.4375003499999999</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>303.8557606642344</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z2">
+        <v>0.5</v>
+      </c>
+      <c r="AA2">
+        <v>0.1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>100</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>100</v>
+      </c>
+      <c r="AI2">
+        <v>0.2777777777777777</v>
+      </c>
+      <c r="AJ2">
+        <v>-0</v>
+      </c>
+      <c r="AK2">
+        <v>309.4545065013518</v>
+      </c>
+      <c r="AL2">
+        <v>2</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>295.4727206047179</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:40">
       <c r="A3">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -617,75 +752,120 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>277.6058223813055</v>
+        <v>376.8804045511084</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>615.5441387072419</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>120.6981836440459</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>301.7454591101147</v>
+        <v>409.1960915381613</v>
       </c>
       <c r="J3">
-        <v>452.6181886651721</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>409.1960915381613</v>
       </c>
       <c r="L3">
-        <v>452.6181886651721</v>
+        <v>615.5441387072419</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>301.7454591101147</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>135.7854565995516</v>
+        <v>188.2302021075542</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>203.1295657733899</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1.1666676</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.1666676</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>256.4836402435975</v>
+        <v>0.5833337999999999</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>277.6058223813055</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0.1</v>
+      </c>
+      <c r="AB3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AC3">
+        <v>0.9</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>-0</v>
+      </c>
+      <c r="AK3">
+        <v>391.3597678809441</v>
+      </c>
+      <c r="AL3">
+        <v>2</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>377.4637383511084</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:40">
       <c r="A4">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -694,75 +874,120 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>235.5041208139488</v>
+        <v>375.163744375992</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>612.6691492304217</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>107.5127508063679</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>255.9827400151617</v>
+        <v>407.3627652869478</v>
       </c>
       <c r="J4">
-        <v>383.9741100227426</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>407.3627652869478</v>
       </c>
       <c r="L4">
-        <v>383.9741100227426</v>
+        <v>612.6691492304217</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>255.9827400151617</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>115.1922330068228</v>
+        <v>183.3132443791265</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>196.0541277537349</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.0833342</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.0833342</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>222.7049838131907</v>
+        <v>0.5416671</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>235.5041208139488</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0.1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>0.9</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>-0</v>
+      </c>
+      <c r="AK4">
+        <v>379.3673721328614</v>
+      </c>
+      <c r="AL4">
+        <v>2</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>375.705411475992</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:40">
       <c r="A5">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -771,70 +996,359 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>177.4234055688266</v>
+        <v>336.6141220707075</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>566.9360692022404</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>92.56873334025734</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>192.8515277922028</v>
+        <v>358.1240454681603</v>
       </c>
       <c r="J5">
-        <v>289.2772916883042</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>358.1240454681603</v>
       </c>
       <c r="L5">
-        <v>289.2772916883042</v>
+        <v>566.9360692022404</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>192.8515277922028</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>101.2470520909065</v>
+        <v>171.8995418247169</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>187.0889028367394</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.833334</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.833334</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>193.8157854311638</v>
+        <v>0.416667</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>177.4234055688266</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.3</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0.1000031666666667</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>0.8999968333333334</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>19</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>19</v>
+      </c>
+      <c r="AI5">
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="AJ5">
+        <v>-0</v>
+      </c>
+      <c r="AK5">
+        <v>358.9884446614563</v>
+      </c>
+      <c r="AL5">
+        <v>2</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>337.0835668484853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>269.7222094209004</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>531.2209937427724</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>253.9806623618483</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>253.9806623618483</v>
+      </c>
+      <c r="L6">
+        <v>531.2209937427724</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>111.7514914392133</v>
+      </c>
+      <c r="P6">
+        <v>169.9907179976872</v>
+      </c>
+      <c r="Q6">
+        <v>0.1666668</v>
+      </c>
+      <c r="R6">
+        <v>0.1666668</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0.0833334</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0.5</v>
+      </c>
+      <c r="Z6">
+        <v>0.5</v>
+      </c>
+      <c r="AA6">
+        <v>0.1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>100</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>100</v>
+      </c>
+      <c r="AI6">
+        <v>0.2777777777777777</v>
+      </c>
+      <c r="AJ6">
+        <v>-0</v>
+      </c>
+      <c r="AK6">
+        <v>281.7422094369005</v>
+      </c>
+      <c r="AL6">
+        <v>2</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>270.0833205986782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>317.375156770891</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>534.8073208221048</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>337.5382138814032</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>337.5382138814032</v>
+      </c>
+      <c r="L7">
+        <v>534.8073208221048</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>168.7691069407016</v>
+      </c>
+      <c r="P7">
+        <v>192.5306354959577</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0.3</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0.1000031666666667</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>0.8999968333333334</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>19.00000000000001</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>19.00000000000001</v>
+      </c>
+      <c r="AI7">
+        <v>0.05277777777777779</v>
+      </c>
+      <c r="AJ7">
+        <v>-0</v>
+      </c>
+      <c r="AK7">
+        <v>361.2997424366593</v>
+      </c>
+      <c r="AL7">
+        <v>2</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>317.4279345486688</v>
       </c>
     </row>
   </sheetData>

--- a/output/time dependant variables/df_time_dependent_variable_values9.xlsx
+++ b/output/time dependant variables/df_time_dependent_variable_values9.xlsx
@@ -19,118 +19,118 @@
     <t>TimeStep</t>
   </si>
   <si>
+    <t>demand1_op_cost</t>
+  </si>
+  <si>
     <t>demand1_inv_cost</t>
   </si>
   <si>
-    <t>demand1_op_cost</t>
+    <t>P_net1_bat1</t>
+  </si>
+  <si>
+    <t>P_net1_demand1</t>
   </si>
   <si>
     <t>net1_emissions</t>
   </si>
   <si>
+    <t>P_to_net1</t>
+  </si>
+  <si>
+    <t>net1_buy_thermal</t>
+  </si>
+  <si>
+    <t>Q_from_net1</t>
+  </si>
+  <si>
+    <t>net1_sell_electric</t>
+  </si>
+  <si>
+    <t>net1_buy_electric</t>
+  </si>
+  <si>
     <t>net1_inv_cost</t>
   </si>
   <si>
-    <t>Q_from_net1</t>
-  </si>
-  <si>
-    <t>P_net1_bat1</t>
-  </si>
-  <si>
-    <t>P_to_net1</t>
+    <t>net1_sell_thermal</t>
+  </si>
+  <si>
+    <t>Q_to_net1</t>
   </si>
   <si>
     <t>P_from_net1</t>
   </si>
   <si>
-    <t>net1_sell_electric</t>
-  </si>
-  <si>
-    <t>P_net1_demand1</t>
-  </si>
-  <si>
     <t>Q_net1_demand1</t>
   </si>
   <si>
-    <t>Q_to_net1</t>
-  </si>
-  <si>
-    <t>net1_sell_thermal</t>
-  </si>
-  <si>
-    <t>net1_buy_electric</t>
-  </si>
-  <si>
-    <t>net1_buy_thermal</t>
+    <t>pv1_inv_cost</t>
+  </si>
+  <si>
+    <t>P_pv1_demand1</t>
+  </si>
+  <si>
+    <t>pv1_op_cost</t>
+  </si>
+  <si>
+    <t>P_pv1_net1</t>
+  </si>
+  <si>
+    <t>pv1_emissions</t>
+  </si>
+  <si>
+    <t>P_pv1_bat1</t>
   </si>
   <si>
     <t>P_from_pv1</t>
   </si>
   <si>
-    <t>P_pv1_demand1</t>
-  </si>
-  <si>
-    <t>P_pv1_net1</t>
-  </si>
-  <si>
-    <t>pv1_op_cost</t>
-  </si>
-  <si>
-    <t>pv1_inv_cost</t>
-  </si>
-  <si>
-    <t>pv1_emissions</t>
-  </si>
-  <si>
-    <t>P_pv1_bat1</t>
+    <t>bat1_SOC</t>
+  </si>
+  <si>
+    <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>P_bat1_demand1</t>
+  </si>
+  <si>
+    <t>bat1_cumulated_aging</t>
+  </si>
+  <si>
+    <t>bat1_op_cost</t>
+  </si>
+  <si>
+    <t>P_to_bat1</t>
+  </si>
+  <si>
+    <t>bat1_integer</t>
+  </si>
+  <si>
+    <t>bat1_inv_cost</t>
+  </si>
+  <si>
+    <t>bat1_K_dis</t>
+  </si>
+  <si>
+    <t>P_from_bat1</t>
+  </si>
+  <si>
+    <t>bat1_SOC_max</t>
+  </si>
+  <si>
+    <t>bat1_emissions</t>
   </si>
   <si>
     <t>bat1_K_ch</t>
   </si>
   <si>
-    <t>bat1_SOC</t>
-  </si>
-  <si>
-    <t>bat1_inv_cost</t>
-  </si>
-  <si>
-    <t>bat1_cumulated_aging</t>
-  </si>
-  <si>
-    <t>bat1_K_dis</t>
-  </si>
-  <si>
-    <t>bat1_SOC_max</t>
-  </si>
-  <si>
-    <t>P_to_bat1</t>
-  </si>
-  <si>
-    <t>P_from_bat1</t>
-  </si>
-  <si>
-    <t>P_bat1_net1</t>
-  </si>
-  <si>
-    <t>bat1_op_cost</t>
-  </si>
-  <si>
-    <t>P_bat1_demand1</t>
-  </si>
-  <si>
-    <t>bat1_emissions</t>
-  </si>
-  <si>
-    <t>bat1_integer</t>
+    <t>total_sell</t>
   </si>
   <si>
     <t>total_buy</t>
   </si>
   <si>
     <t>total_operation_cost</t>
-  </si>
-  <si>
-    <t>total_sell</t>
   </si>
   <si>
     <t>total_emissions</t>
@@ -491,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AN4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +621,7 @@
     </row>
     <row r="2" spans="1:40">
       <c r="A2">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -630,31 +630,31 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>294.7574424769401</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3.6774555661557</v>
       </c>
       <c r="F2">
-        <v>572.6860481558806</v>
+        <v>39.38325912086324</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>49.76517867175474</v>
       </c>
       <c r="I2">
-        <v>280.9156980705871</v>
+        <v>155.5161833492336</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>280.9156980705871</v>
+        <v>1.765178671754736</v>
       </c>
       <c r="L2">
-        <v>572.6860481558806</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -663,87 +663,87 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>137.6486920545877</v>
+        <v>3.6774555661557</v>
       </c>
       <c r="P2">
-        <v>171.8058144467642</v>
+        <v>155.5161833492336</v>
       </c>
       <c r="Q2">
-        <v>0.8750006999999999</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.8750006999999999</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.4375003499999999</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="AA2">
-        <v>0.1</v>
+        <v>0.0001433360873037174</v>
       </c>
       <c r="AB2">
         <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
         <v>100</v>
       </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
       <c r="AH2">
-        <v>100</v>
+        <v>0.999856663912696</v>
       </c>
       <c r="AI2">
         <v>0.2777777777777777</v>
       </c>
       <c r="AJ2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>309.4545065013518</v>
+        <v>0</v>
       </c>
       <c r="AL2">
+        <v>51.53035734350948</v>
+      </c>
+      <c r="AM2">
         <v>2</v>
       </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
       <c r="AN2">
-        <v>295.4727206047179</v>
+        <v>39.66103689864102</v>
       </c>
     </row>
     <row r="3" spans="1:40">
       <c r="A3">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -752,31 +752,31 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>376.8804045511084</v>
+        <v>73.66783009905402</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>97.78916096758275</v>
       </c>
       <c r="F3">
-        <v>615.5441387072419</v>
+        <v>131.2200129456464</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>46.93879726443972</v>
       </c>
       <c r="I3">
-        <v>409.1960915381613</v>
+        <v>146.6837414513741</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>409.1960915381613</v>
+        <v>73.72650615865381</v>
       </c>
       <c r="L3">
-        <v>615.5441387072419</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -785,87 +785,87 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>188.2302021075542</v>
+        <v>171.4569910666368</v>
       </c>
       <c r="P3">
-        <v>203.1295657733899</v>
+        <v>146.6837414513741</v>
       </c>
       <c r="Q3">
-        <v>1.1666676</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.1666676</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0.9998443859410132</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0.0001556140589868931</v>
+      </c>
+      <c r="AB3">
         <v>1</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0.5833337999999999</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>1.110223024625157E-16</v>
-      </c>
-      <c r="Y3">
-        <v>0.5</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0.1</v>
-      </c>
-      <c r="AB3">
-        <v>0.9999999999999999</v>
-      </c>
       <c r="AC3">
-        <v>0.9</v>
+        <v>73.66783009905402</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0.9998443859410131</v>
+      </c>
+      <c r="AI3">
+        <v>0.2046328613862611</v>
+      </c>
+      <c r="AJ3">
         <v>1</v>
       </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>-0</v>
-      </c>
       <c r="AK3">
-        <v>391.3597678809441</v>
+        <v>0</v>
       </c>
       <c r="AL3">
+        <v>120.6653034230935</v>
+      </c>
+      <c r="AM3">
         <v>2</v>
       </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
       <c r="AN3">
-        <v>377.4637383511084</v>
+        <v>131.4246458070326</v>
       </c>
     </row>
     <row r="4" spans="1:40">
       <c r="A4">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -874,31 +874,31 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>375.163744375992</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>28.300518870357</v>
       </c>
       <c r="F4">
-        <v>612.6691492304217</v>
+        <v>49.97115535991109</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>55.44965528783064</v>
       </c>
       <c r="I4">
-        <v>407.3627652869478</v>
+        <v>142.1786033021299</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>407.3627652869478</v>
+        <v>13.86725424647493</v>
       </c>
       <c r="L4">
-        <v>612.6691492304217</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -907,448 +907,82 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>183.3132443791265</v>
+        <v>28.300518870357</v>
       </c>
       <c r="P4">
-        <v>196.0541277537349</v>
+        <v>142.1786033021299</v>
       </c>
       <c r="Q4">
-        <v>1.0833342</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.0833342</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.5416671</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>66.48521666439625</v>
       </c>
       <c r="AA4">
-        <v>0.1</v>
+        <v>0.0001666949284309591</v>
       </c>
       <c r="AB4">
         <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>66.48521666439625</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.9998333050715691</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.1846811574011007</v>
       </c>
       <c r="AJ4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>379.3673721328614</v>
+        <v>0</v>
       </c>
       <c r="AL4">
+        <v>69.31690953430558</v>
+      </c>
+      <c r="AM4">
         <v>2</v>
       </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
       <c r="AN4">
-        <v>375.705411475992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
-      <c r="A5">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>336.6141220707075</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>566.9360692022404</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>358.1240454681603</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>358.1240454681603</v>
-      </c>
-      <c r="L5">
-        <v>566.9360692022404</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>171.8995418247169</v>
-      </c>
-      <c r="P5">
-        <v>187.0889028367394</v>
-      </c>
-      <c r="Q5">
-        <v>0.833334</v>
-      </c>
-      <c r="R5">
-        <v>0.833334</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0.416667</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0.3</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0.1000031666666667</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>0.8999968333333334</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>19</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>19</v>
-      </c>
-      <c r="AI5">
-        <v>0.05277777777777776</v>
-      </c>
-      <c r="AJ5">
-        <v>-0</v>
-      </c>
-      <c r="AK5">
-        <v>358.9884446614563</v>
-      </c>
-      <c r="AL5">
-        <v>2</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>337.0835668484853</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
-      <c r="A6">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>269.7222094209004</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>531.2209937427724</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>253.9806623618483</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>253.9806623618483</v>
-      </c>
-      <c r="L6">
-        <v>531.2209937427724</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>111.7514914392133</v>
-      </c>
-      <c r="P6">
-        <v>169.9907179976872</v>
-      </c>
-      <c r="Q6">
-        <v>0.1666668</v>
-      </c>
-      <c r="R6">
-        <v>0.1666668</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0.0833334</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0.5</v>
-      </c>
-      <c r="Z6">
-        <v>0.5</v>
-      </c>
-      <c r="AA6">
-        <v>0.1</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>100</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6">
-        <v>100</v>
-      </c>
-      <c r="AI6">
-        <v>0.2777777777777777</v>
-      </c>
-      <c r="AJ6">
-        <v>-0</v>
-      </c>
-      <c r="AK6">
-        <v>281.7422094369005</v>
-      </c>
-      <c r="AL6">
-        <v>2</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>270.0833205986782</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
-      <c r="A7">
-        <v>41</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>317.375156770891</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>534.8073208221048</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>337.5382138814032</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>337.5382138814032</v>
-      </c>
-      <c r="L7">
-        <v>534.8073208221048</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>168.7691069407016</v>
-      </c>
-      <c r="P7">
-        <v>192.5306354959577</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0.3</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0.1000031666666667</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-      <c r="AC7">
-        <v>0.8999968333333334</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>19.00000000000001</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
-      <c r="AH7">
-        <v>19.00000000000001</v>
-      </c>
-      <c r="AI7">
-        <v>0.05277777777777779</v>
-      </c>
-      <c r="AJ7">
-        <v>-0</v>
-      </c>
-      <c r="AK7">
-        <v>361.2997424366593</v>
-      </c>
-      <c r="AL7">
-        <v>2</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>317.4279345486688</v>
+        <v>50.15583651731219</v>
       </c>
     </row>
   </sheetData>

--- a/output/time dependant variables/df_time_dependent_variable_values9.xlsx
+++ b/output/time dependant variables/df_time_dependent_variable_values9.xlsx
@@ -25,112 +25,112 @@
     <t>demand1_inv_cost</t>
   </si>
   <si>
+    <t>net1_buy_electric</t>
+  </si>
+  <si>
+    <t>P_from_net1</t>
+  </si>
+  <si>
+    <t>net1_sell_electric</t>
+  </si>
+  <si>
+    <t>Q_from_net1</t>
+  </si>
+  <si>
+    <t>net1_buy_thermal</t>
+  </si>
+  <si>
+    <t>P_net1_demand1</t>
+  </si>
+  <si>
+    <t>net1_sell_thermal</t>
+  </si>
+  <si>
+    <t>Q_to_net1</t>
+  </si>
+  <si>
+    <t>P_to_net1</t>
+  </si>
+  <si>
+    <t>net1_emissions</t>
+  </si>
+  <si>
+    <t>net1_inv_cost</t>
+  </si>
+  <si>
+    <t>Q_net1_demand1</t>
+  </si>
+  <si>
     <t>P_net1_bat1</t>
   </si>
   <si>
-    <t>P_net1_demand1</t>
-  </si>
-  <si>
-    <t>net1_emissions</t>
-  </si>
-  <si>
-    <t>P_to_net1</t>
-  </si>
-  <si>
-    <t>net1_buy_thermal</t>
-  </si>
-  <si>
-    <t>Q_from_net1</t>
-  </si>
-  <si>
-    <t>net1_sell_electric</t>
-  </si>
-  <si>
-    <t>net1_buy_electric</t>
-  </si>
-  <si>
-    <t>net1_inv_cost</t>
-  </si>
-  <si>
-    <t>net1_sell_thermal</t>
-  </si>
-  <si>
-    <t>Q_to_net1</t>
-  </si>
-  <si>
-    <t>P_from_net1</t>
-  </si>
-  <si>
-    <t>Q_net1_demand1</t>
+    <t>pv1_op_cost</t>
+  </si>
+  <si>
+    <t>P_from_pv1</t>
+  </si>
+  <si>
+    <t>P_pv1_net1</t>
   </si>
   <si>
     <t>pv1_inv_cost</t>
   </si>
   <si>
+    <t>pv1_emissions</t>
+  </si>
+  <si>
     <t>P_pv1_demand1</t>
   </si>
   <si>
-    <t>pv1_op_cost</t>
-  </si>
-  <si>
-    <t>P_pv1_net1</t>
-  </si>
-  <si>
-    <t>pv1_emissions</t>
-  </si>
-  <si>
     <t>P_pv1_bat1</t>
   </si>
   <si>
-    <t>P_from_pv1</t>
+    <t>P_from_bat1</t>
+  </si>
+  <si>
+    <t>bat1_emissions</t>
+  </si>
+  <si>
+    <t>bat1_cumulated_aging</t>
+  </si>
+  <si>
+    <t>bat1_K_dis</t>
+  </si>
+  <si>
+    <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>bat1_K_ch</t>
+  </si>
+  <si>
+    <t>bat1_SOC_max</t>
+  </si>
+  <si>
+    <t>bat1_inv_cost</t>
+  </si>
+  <si>
+    <t>P_bat1_demand1</t>
   </si>
   <si>
     <t>bat1_SOC</t>
   </si>
   <si>
-    <t>P_bat1_net1</t>
-  </si>
-  <si>
-    <t>P_bat1_demand1</t>
-  </si>
-  <si>
-    <t>bat1_cumulated_aging</t>
-  </si>
-  <si>
     <t>bat1_op_cost</t>
   </si>
   <si>
+    <t>bat1_integer</t>
+  </si>
+  <si>
     <t>P_to_bat1</t>
   </si>
   <si>
-    <t>bat1_integer</t>
-  </si>
-  <si>
-    <t>bat1_inv_cost</t>
-  </si>
-  <si>
-    <t>bat1_K_dis</t>
-  </si>
-  <si>
-    <t>P_from_bat1</t>
-  </si>
-  <si>
-    <t>bat1_SOC_max</t>
-  </si>
-  <si>
-    <t>bat1_emissions</t>
-  </si>
-  <si>
-    <t>bat1_K_ch</t>
+    <t>total_operation_cost</t>
+  </si>
+  <si>
+    <t>total_buy</t>
   </si>
   <si>
     <t>total_sell</t>
-  </si>
-  <si>
-    <t>total_buy</t>
-  </si>
-  <si>
-    <t>total_operation_cost</t>
   </si>
   <si>
     <t>total_emissions</t>
@@ -491,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN4"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +621,7 @@
     </row>
     <row r="2" spans="1:40">
       <c r="A2">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -630,52 +630,52 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>148.8203522009333</v>
       </c>
       <c r="E2">
-        <v>3.6774555661557</v>
+        <v>323.5225047846375</v>
       </c>
       <c r="F2">
-        <v>39.38325912086324</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>635.2837571769562</v>
       </c>
       <c r="H2">
-        <v>49.76517867175474</v>
+        <v>196.9379647248564</v>
       </c>
       <c r="I2">
-        <v>155.5161833492336</v>
+        <v>323.5225047846375</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.765178671754736</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>333.6407044018665</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.6774555661557</v>
+        <v>635.2837571769562</v>
       </c>
       <c r="P2">
-        <v>155.5161833492336</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -690,60 +690,60 @@
         <v>0</v>
       </c>
       <c r="X2">
+        <v>100</v>
+      </c>
+      <c r="Y2">
+        <v>0.2777777777777777</v>
+      </c>
+      <c r="Z2">
+        <v>0.0002134102717948534</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0.9997865897282049</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>100</v>
+      </c>
+      <c r="AG2">
         <v>0.3</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>100</v>
-      </c>
-      <c r="AA2">
-        <v>0.0001433360873037174</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
         <v>-0</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>100</v>
-      </c>
-      <c r="AH2">
-        <v>0.999856663912696</v>
-      </c>
-      <c r="AI2">
-        <v>0.2777777777777777</v>
-      </c>
       <c r="AJ2">
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL2">
-        <v>51.53035734350948</v>
+        <v>345.7583169257897</v>
       </c>
       <c r="AM2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>39.66103689864102</v>
+        <v>333.9184821796443</v>
       </c>
     </row>
     <row r="3" spans="1:40">
       <c r="A3">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -752,52 +752,52 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>73.66783009905402</v>
+        <v>145.3223203176773</v>
       </c>
       <c r="E3">
-        <v>97.78916096758275</v>
+        <v>330.2780007219939</v>
       </c>
       <c r="F3">
-        <v>131.2200129456464</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>495.4170010829909</v>
       </c>
       <c r="H3">
-        <v>46.93879726443972</v>
+        <v>173.3959503790468</v>
       </c>
       <c r="I3">
-        <v>146.6837414513741</v>
+        <v>330.2780007219939</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>73.72650615865381</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>303.8557606642344</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>171.4569910666368</v>
+        <v>495.4170010829909</v>
       </c>
       <c r="P3">
-        <v>146.6837414513741</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -812,60 +812,60 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.9998443859410132</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.0002134102717948534</v>
       </c>
       <c r="AA3">
-        <v>0.0001556140589868931</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>73.66783009905402</v>
+        <v>1</v>
       </c>
       <c r="AD3">
+        <v>0.9997865897282051</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0.3</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
         <v>-0</v>
       </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>-0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0.9998443859410131</v>
-      </c>
-      <c r="AI3">
-        <v>0.2046328613862611</v>
-      </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL3">
-        <v>120.6653034230935</v>
+        <v>318.7182706967241</v>
       </c>
       <c r="AM3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>131.4246458070326</v>
+        <v>303.8557606642344</v>
       </c>
     </row>
     <row r="4" spans="1:40">
       <c r="A4">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -874,52 +874,52 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>150.162365243451</v>
       </c>
       <c r="E4">
-        <v>28.300518870357</v>
+        <v>375.4059131086276</v>
       </c>
       <c r="F4">
-        <v>49.97115535991109</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>452.6181886651721</v>
       </c>
       <c r="H4">
-        <v>55.44965528783064</v>
+        <v>135.7854565995516</v>
       </c>
       <c r="I4">
-        <v>142.1786033021299</v>
+        <v>301.7454591101147</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.86725424647493</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>318.8556766204728</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.300518870357</v>
+        <v>452.6181886651721</v>
       </c>
       <c r="P4">
-        <v>142.1786033021299</v>
+        <v>73.66045399851289</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -934,55 +934,1641 @@
         <v>0</v>
       </c>
       <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0.2046123722180913</v>
+      </c>
+      <c r="Z4">
+        <v>0.0002256870141279389</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>0.999774312985872</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0.9997743129858725</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>-0</v>
+      </c>
+      <c r="AJ4">
+        <v>73.66045399851289</v>
+      </c>
+      <c r="AK4">
+        <v>2</v>
+      </c>
+      <c r="AL4">
+        <v>285.9478218430027</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>319.0602889926909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>107.5127508063679</v>
+      </c>
+      <c r="E5">
+        <v>255.9827400151617</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>383.9741100227426</v>
+      </c>
+      <c r="H5">
+        <v>115.1922330068228</v>
+      </c>
+      <c r="I5">
+        <v>255.9827400151617</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>235.5041208139488</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>383.9741100227426</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0.0002256870141279389</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0.999774312985872</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0.999774312985872</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>-0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>2</v>
+      </c>
+      <c r="AL5">
+        <v>222.7049838131907</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>235.5041208139488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="A6">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>92.56873334025734</v>
+      </c>
+      <c r="E6">
+        <v>192.8515277922028</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>289.2772916883042</v>
+      </c>
+      <c r="H6">
+        <v>101.2470520909065</v>
+      </c>
+      <c r="I6">
+        <v>192.8515277922028</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>177.4234055688266</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>289.2772916883042</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0.0002256870141279389</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0.999774312985872</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0.999774312985872</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>-0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>2</v>
+      </c>
+      <c r="AL6">
+        <v>193.8157854311638</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>177.4234055688266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>66.62862210197807</v>
+      </c>
+      <c r="E7">
+        <v>138.809629379121</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>208.2144440686815</v>
+      </c>
+      <c r="H7">
+        <v>70.7929109833517</v>
+      </c>
+      <c r="I7">
+        <v>138.809629379121</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>127.7048590287913</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>208.2144440686815</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0.0002256870141279389</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0.999774312985872</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0.999774312985872</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>-0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>2</v>
+      </c>
+      <c r="AL7">
+        <v>137.4215330853298</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>127.7048590287913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>22.34385001836218</v>
+      </c>
+      <c r="E8">
+        <v>44.68770003672435</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>166.7493896555733</v>
+      </c>
+      <c r="H8">
+        <v>55.02729858633919</v>
+      </c>
+      <c r="I8">
+        <v>44.68770003672435</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>65.04496553790322</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>166.7493896555733</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>66.47855973365785</v>
+      </c>
+      <c r="Y8">
+        <v>0.1846626659268273</v>
+      </c>
+      <c r="Z8">
+        <v>0.0002367667740835485</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0.9997632332259164</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>66.47855973365785</v>
+      </c>
+      <c r="AG8">
         <v>0.3</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>66.48521666439625</v>
-      </c>
-      <c r="AA4">
-        <v>0.0001666949284309591</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
         <v>-0</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <v>66.48521666439625</v>
-      </c>
-      <c r="AH4">
-        <v>0.9998333050715691</v>
-      </c>
-      <c r="AI4">
-        <v>0.1846811574011007</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>69.31690953430558</v>
-      </c>
-      <c r="AM4">
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
         <v>2</v>
       </c>
-      <c r="AN4">
-        <v>50.15583651731219</v>
+      <c r="AL8">
+        <v>77.37114860470136</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>65.22962820383005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>71.80828563588864</v>
+      </c>
+      <c r="E9">
+        <v>175.1421600875333</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>152.2262469376147</v>
+      </c>
+      <c r="H9">
+        <v>47.19013655066057</v>
+      </c>
+      <c r="I9">
+        <v>101.4841646250765</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>134.6139089140462</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>152.2262469376147</v>
+      </c>
+      <c r="P9">
+        <v>73.65799546245678</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0.2046055429512688</v>
+      </c>
+      <c r="Z9">
+        <v>0.0002490431066606247</v>
+      </c>
+      <c r="AA9">
+        <v>-0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>0.9997509568933394</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0.9997509568933395</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>-0</v>
+      </c>
+      <c r="AJ9">
+        <v>73.65799546245678</v>
+      </c>
+      <c r="AK9">
+        <v>2</v>
+      </c>
+      <c r="AL9">
+        <v>118.9984221865492</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>134.8185144569975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>43.94683227076205</v>
+      </c>
+      <c r="E10">
+        <v>95.53659189296098</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>143.3048878394415</v>
+      </c>
+      <c r="H10">
+        <v>47.29061298701569</v>
+      </c>
+      <c r="I10">
+        <v>95.53659189296098</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>87.89366454152412</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>143.3048878394415</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0.0002490431066606247</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0.9997509568933394</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0.9997509568933395</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>-0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>2</v>
+      </c>
+      <c r="AL10">
+        <v>91.23744525777775</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>87.89366454152412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>44.77218148345451</v>
+      </c>
+      <c r="E11">
+        <v>95.25996060309471</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>142.8899409046421</v>
+      </c>
+      <c r="H11">
+        <v>55.72707695281041</v>
+      </c>
+      <c r="I11">
+        <v>95.25996060309471</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>87.63916375484713</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>142.8899409046421</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0.0002490431066606247</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0.9997509568933394</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0.9997509568933395</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>-0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>2</v>
+      </c>
+      <c r="AL11">
+        <v>100.4992584362649</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>87.63916375484713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>48.48477098723328</v>
+      </c>
+      <c r="E12">
+        <v>101.009939556736</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>151.514909335104</v>
+      </c>
+      <c r="H12">
+        <v>46.96962189388224</v>
+      </c>
+      <c r="I12">
+        <v>101.009939556736</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>92.92914439219712</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>151.514909335104</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0.0002490431066606247</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0.9997509568933394</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0.9997509568933395</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>-0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>2</v>
+      </c>
+      <c r="AL12">
+        <v>95.45439288111552</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>92.92914439219712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>59.19277303038355</v>
+      </c>
+      <c r="E13">
+        <v>123.3182771466324</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>184.9774157199486</v>
+      </c>
+      <c r="H13">
+        <v>55.49322471598457</v>
+      </c>
+      <c r="I13">
+        <v>123.3182771466324</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>113.4528149749018</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>184.9774157199486</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0.0002490431066606247</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0.9997509568933394</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0.9997509568933395</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>-0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>2</v>
+      </c>
+      <c r="AL13">
+        <v>114.6859977463681</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>113.4528149749018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>102.5316990139001</v>
+      </c>
+      <c r="E14">
+        <v>218.1525510934044</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>327.5413268901066</v>
+      </c>
+      <c r="H14">
+        <v>117.9148776804384</v>
+      </c>
+      <c r="I14">
+        <v>218.1525510934044</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>200.7753470659321</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>327.5413268901066</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0.2083335</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0.10416675</v>
+      </c>
+      <c r="V14">
+        <v>0.2083335</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0.0002490431066606247</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0.9997509568933394</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0.9997509568933395</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>-0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>2</v>
+      </c>
+      <c r="AL14">
+        <v>220.4465766943384</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>200.8795138159321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>131.8783848381476</v>
+      </c>
+      <c r="E15">
+        <v>274.7466350794741</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>512.459464476512</v>
+      </c>
+      <c r="H15">
+        <v>199.8591911458397</v>
+      </c>
+      <c r="I15">
+        <v>274.7466350794741</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>276.8483871188683</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>512.459464476512</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0.416667</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0.2083335</v>
+      </c>
+      <c r="V15">
+        <v>0.416667</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>66.47634090486726</v>
+      </c>
+      <c r="Y15">
+        <v>0.1846565025135201</v>
+      </c>
+      <c r="Z15">
+        <v>0.0002601224968114359</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0.9997398775031886</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>66.47634090486726</v>
+      </c>
+      <c r="AG15">
+        <v>0.3</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>-0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>2</v>
+      </c>
+      <c r="AL15">
+        <v>331.7375759839873</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>277.2413771213818</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>197.3222832561857</v>
+      </c>
+      <c r="E16">
+        <v>428.9614853395342</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>644.4422288093012</v>
+      </c>
+      <c r="H16">
+        <v>219.1103577951624</v>
+      </c>
+      <c r="I16">
+        <v>428.9614853395342</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>394.8845667043714</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>644.4422288093012</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0.6666672</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0.3333336</v>
+      </c>
+      <c r="V16">
+        <v>0.6666672</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0.0002601224968114359</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0.9997398775031886</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0.3</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>-0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>2</v>
+      </c>
+      <c r="AL16">
+        <v>416.4326410513481</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>395.2179003043714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>224.9251424599611</v>
+      </c>
+      <c r="E17">
+        <v>499.8336499110246</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>750.3129753165368</v>
+      </c>
+      <c r="H17">
+        <v>277.6158008671187</v>
+      </c>
+      <c r="I17">
+        <v>499.8336499110246</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>459.9819580261426</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>750.3129753165368</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0.3750003</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0.18750015</v>
+      </c>
+      <c r="V17">
+        <v>0.3750003</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0.0002601224968114359</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0.9997398775031886</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0.3</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>-0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>2</v>
+      </c>
+      <c r="AL17">
+        <v>502.5409433270797</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>460.1694581761426</v>
       </c>
     </row>
   </sheetData>

--- a/output/time dependant variables/df_time_dependent_variable_values9.xlsx
+++ b/output/time dependant variables/df_time_dependent_variable_values9.xlsx
@@ -19,712 +19,712 @@
     <t>TimeStep</t>
   </si>
   <si>
+    <t>demand1_op_cost</t>
+  </si>
+  <si>
     <t>demand1_inv_cost</t>
   </si>
   <si>
-    <t>demand1_op_cost</t>
+    <t>demand2_inv_cost</t>
   </si>
   <si>
     <t>demand2_op_cost</t>
   </si>
   <si>
-    <t>demand2_inv_cost</t>
+    <t>Q_net1_demand2</t>
+  </si>
+  <si>
+    <t>net1_sell_thermal</t>
+  </si>
+  <si>
+    <t>net1_buy_electric</t>
+  </si>
+  <si>
+    <t>net1_sell_electric</t>
+  </si>
+  <si>
+    <t>net1_emissions</t>
+  </si>
+  <si>
+    <t>P_net1_bat2</t>
+  </si>
+  <si>
+    <t>P_net1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_net1_bat1</t>
   </si>
   <si>
     <t>P_net1_charging_station1</t>
   </si>
   <si>
+    <t>P_to_net1</t>
+  </si>
+  <si>
+    <t>P_net1_demand2</t>
+  </si>
+  <si>
+    <t>P_from_net1</t>
+  </si>
+  <si>
+    <t>P_net1_demand1</t>
+  </si>
+  <si>
+    <t>Q_from_net1</t>
+  </si>
+  <si>
     <t>Q_to_net1</t>
   </si>
   <si>
+    <t>net1_inv_cost</t>
+  </si>
+  <si>
+    <t>P_net1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_net1_heat_pump1</t>
+  </si>
+  <si>
     <t>Q_net1_demand1</t>
   </si>
   <si>
-    <t>Q_net1_demand2</t>
-  </si>
-  <si>
-    <t>net1_sell_electric</t>
-  </si>
-  <si>
     <t>net1_buy_thermal</t>
   </si>
   <si>
-    <t>P_net1_heat_pump1</t>
-  </si>
-  <si>
-    <t>P_to_net1</t>
-  </si>
-  <si>
-    <t>net1_inv_cost</t>
-  </si>
-  <si>
-    <t>P_net1_heat_pump2</t>
-  </si>
-  <si>
-    <t>P_net1_bat2</t>
-  </si>
-  <si>
-    <t>net1_buy_electric</t>
-  </si>
-  <si>
-    <t>P_net1_charging_station2</t>
-  </si>
-  <si>
-    <t>net1_emissions</t>
-  </si>
-  <si>
-    <t>P_net1_demand2</t>
-  </si>
-  <si>
-    <t>P_net1_bat1</t>
-  </si>
-  <si>
-    <t>Q_from_net1</t>
-  </si>
-  <si>
-    <t>net1_sell_thermal</t>
-  </si>
-  <si>
-    <t>P_from_net1</t>
-  </si>
-  <si>
-    <t>P_net1_demand1</t>
+    <t>net2_buy_electric</t>
+  </si>
+  <si>
+    <t>P_net2_bat1</t>
+  </si>
+  <si>
+    <t>net2_inv_cost</t>
   </si>
   <si>
     <t>net2_buy_thermal</t>
   </si>
   <si>
-    <t>net2_inv_cost</t>
+    <t>net2_sell_thermal</t>
+  </si>
+  <si>
+    <t>P_net2_bat2</t>
+  </si>
+  <si>
+    <t>P_net2_charging_station1</t>
+  </si>
+  <si>
+    <t>Q_from_net2</t>
+  </si>
+  <si>
+    <t>P_net2_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_from_net2</t>
+  </si>
+  <si>
+    <t>P_net2_demand2</t>
+  </si>
+  <si>
+    <t>Q_net2_demand2</t>
+  </si>
+  <si>
+    <t>net2_sell_electric</t>
+  </si>
+  <si>
+    <t>P_to_net2</t>
   </si>
   <si>
     <t>P_net2_charging_station2</t>
   </si>
   <si>
+    <t>Q_to_net2</t>
+  </si>
+  <si>
+    <t>net2_emissions</t>
+  </si>
+  <si>
+    <t>P_net2_heat_pump1</t>
+  </si>
+  <si>
     <t>P_net2_demand1</t>
   </si>
   <si>
-    <t>P_net2_charging_station1</t>
-  </si>
-  <si>
-    <t>P_net2_heat_pump2</t>
-  </si>
-  <si>
-    <t>Q_from_net2</t>
-  </si>
-  <si>
-    <t>P_from_net2</t>
-  </si>
-  <si>
-    <t>Q_to_net2</t>
-  </si>
-  <si>
-    <t>net2_sell_thermal</t>
-  </si>
-  <si>
-    <t>Q_net2_demand2</t>
-  </si>
-  <si>
-    <t>P_net2_demand2</t>
-  </si>
-  <si>
-    <t>P_net2_bat2</t>
-  </si>
-  <si>
-    <t>net2_sell_electric</t>
-  </si>
-  <si>
-    <t>P_to_net2</t>
-  </si>
-  <si>
-    <t>P_net2_bat1</t>
-  </si>
-  <si>
-    <t>net2_emissions</t>
-  </si>
-  <si>
     <t>Q_net2_demand1</t>
   </si>
   <si>
-    <t>P_net2_heat_pump1</t>
-  </si>
-  <si>
-    <t>net2_buy_electric</t>
+    <t>P_pv1_demand2</t>
+  </si>
+  <si>
+    <t>pv1_op_cost</t>
+  </si>
+  <si>
+    <t>pv1_emissions</t>
+  </si>
+  <si>
+    <t>P_pv1_demand1</t>
+  </si>
+  <si>
+    <t>P_pv1_bat1</t>
+  </si>
+  <si>
+    <t>P_pv1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pv1_bat2</t>
   </si>
   <si>
     <t>P_pv1_net2</t>
   </si>
   <si>
+    <t>P_pv1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_from_pv1</t>
+  </si>
+  <si>
     <t>P_pv1_heat_pump2</t>
   </si>
   <si>
-    <t>P_pv1_demand1</t>
-  </si>
-  <si>
-    <t>P_pv1_bat2</t>
-  </si>
-  <si>
     <t>P_pv1_heat_pump1</t>
   </si>
   <si>
-    <t>P_from_pv1</t>
-  </si>
-  <si>
-    <t>pv1_op_cost</t>
-  </si>
-  <si>
-    <t>P_pv1_demand2</t>
-  </si>
-  <si>
-    <t>P_pv1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_pv1_bat1</t>
+    <t>P_pv1_net1</t>
   </si>
   <si>
     <t>pv1_inv_cost</t>
   </si>
   <si>
-    <t>P_pv1_net1</t>
-  </si>
-  <si>
-    <t>P_pv1_charging_station2</t>
-  </si>
-  <si>
-    <t>pv1_emissions</t>
+    <t>P_pv2_charging_station1</t>
   </si>
   <si>
     <t>P_pv2_net1</t>
   </si>
   <si>
+    <t>P_from_pv2</t>
+  </si>
+  <si>
+    <t>P_pv2_bat1</t>
+  </si>
+  <si>
+    <t>P_pv2_bat2</t>
+  </si>
+  <si>
+    <t>P_pv2_demand2</t>
+  </si>
+  <si>
+    <t>P_pv2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pv2_heat_pump2</t>
+  </si>
+  <si>
+    <t>pv2_inv_cost</t>
+  </si>
+  <si>
+    <t>P_pv2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pv2_demand1</t>
+  </si>
+  <si>
     <t>P_pv2_net2</t>
   </si>
   <si>
-    <t>P_pv2_demand2</t>
-  </si>
-  <si>
-    <t>P_pv2_bat1</t>
-  </si>
-  <si>
-    <t>P_pv2_bat2</t>
-  </si>
-  <si>
-    <t>P_pv2_charging_station2</t>
-  </si>
-  <si>
-    <t>P_pv2_charging_station1</t>
-  </si>
-  <si>
     <t>pv2_op_cost</t>
   </si>
   <si>
-    <t>P_pv2_heat_pump2</t>
-  </si>
-  <si>
-    <t>P_pv2_heat_pump1</t>
-  </si>
-  <si>
     <t>pv2_emissions</t>
   </si>
   <si>
-    <t>pv2_inv_cost</t>
-  </si>
-  <si>
-    <t>P_from_pv2</t>
-  </si>
-  <si>
-    <t>P_pv2_demand1</t>
+    <t>bat1_K_ch</t>
+  </si>
+  <si>
+    <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>P_bat1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_bat1_demand2</t>
+  </si>
+  <si>
+    <t>bat1_cumulated_aging</t>
+  </si>
+  <si>
+    <t>bat1_op_cost</t>
+  </si>
+  <si>
+    <t>bat1_emissions</t>
+  </si>
+  <si>
+    <t>bat1_K_dis</t>
+  </si>
+  <si>
+    <t>bat1_integer</t>
+  </si>
+  <si>
+    <t>bat1_SOC</t>
+  </si>
+  <si>
+    <t>P_bat1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_bat1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_to_bat1</t>
   </si>
   <si>
     <t>bat1_inv_cost</t>
   </si>
   <si>
-    <t>P_to_bat1</t>
-  </si>
-  <si>
-    <t>P_bat1_demand2</t>
-  </si>
-  <si>
-    <t>bat1_integer</t>
-  </si>
-  <si>
-    <t>P_bat1_heat_pump2</t>
-  </si>
-  <si>
-    <t>P_bat1_charging_station1</t>
-  </si>
-  <si>
-    <t>bat1_emissions</t>
-  </si>
-  <si>
-    <t>bat1_K_ch</t>
-  </si>
-  <si>
-    <t>P_bat1_heat_pump1</t>
+    <t>P_from_bat1</t>
+  </si>
+  <si>
+    <t>P_bat1_demand1</t>
   </si>
   <si>
     <t>P_bat1_charging_station2</t>
   </si>
   <si>
-    <t>bat1_op_cost</t>
-  </si>
-  <si>
-    <t>bat1_K_dis</t>
-  </si>
-  <si>
-    <t>bat1_SOC</t>
-  </si>
-  <si>
-    <t>P_bat1_demand1</t>
-  </si>
-  <si>
-    <t>P_bat1_net1</t>
-  </si>
-  <si>
-    <t>bat1_cumulated_aging</t>
+    <t>P_bat1_net2</t>
   </si>
   <si>
     <t>bat1_SOC_max</t>
   </si>
   <si>
-    <t>P_from_bat1</t>
-  </si>
-  <si>
-    <t>P_bat1_net2</t>
+    <t>P_bat2_net2</t>
+  </si>
+  <si>
+    <t>P_bat2_demand1</t>
+  </si>
+  <si>
+    <t>bat2_SOC</t>
+  </si>
+  <si>
+    <t>P_bat2_charging_station1</t>
+  </si>
+  <si>
+    <t>bat2_op_cost</t>
+  </si>
+  <si>
+    <t>P_bat2_net1</t>
+  </si>
+  <si>
+    <t>bat2_inv_cost</t>
+  </si>
+  <si>
+    <t>bat2_emissions</t>
   </si>
   <si>
     <t>bat2_cumulated_aging</t>
   </si>
   <si>
+    <t>P_bat2_demand2</t>
+  </si>
+  <si>
+    <t>P_to_bat2</t>
+  </si>
+  <si>
+    <t>P_bat2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_bat2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_bat2_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_from_bat2</t>
+  </si>
+  <si>
+    <t>bat2_K_dis</t>
+  </si>
+  <si>
     <t>bat2_K_ch</t>
   </si>
   <si>
-    <t>P_bat2_net2</t>
-  </si>
-  <si>
-    <t>bat2_K_dis</t>
-  </si>
-  <si>
-    <t>P_bat2_heat_pump2</t>
-  </si>
-  <si>
-    <t>P_to_bat2</t>
-  </si>
-  <si>
-    <t>P_bat2_demand1</t>
-  </si>
-  <si>
-    <t>bat2_SOC</t>
-  </si>
-  <si>
-    <t>P_bat2_charging_station2</t>
-  </si>
-  <si>
-    <t>bat2_op_cost</t>
-  </si>
-  <si>
-    <t>P_bat2_net1</t>
-  </si>
-  <si>
     <t>bat2_SOC_max</t>
   </si>
   <si>
-    <t>bat2_inv_cost</t>
-  </si>
-  <si>
-    <t>P_bat2_charging_station1</t>
-  </si>
-  <si>
-    <t>bat2_emissions</t>
-  </si>
-  <si>
-    <t>P_from_bat2</t>
-  </si>
-  <si>
     <t>bat2_integer</t>
   </si>
   <si>
-    <t>P_bat2_heat_pump1</t>
-  </si>
-  <si>
-    <t>P_bat2_demand2</t>
+    <t>Q_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>P_CHP1_bat2</t>
+  </si>
+  <si>
+    <t>P_CHP1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_CHP1_demand2</t>
+  </si>
+  <si>
+    <t>CHP1_emissions</t>
+  </si>
+  <si>
+    <t>P_CHP1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_CHP1_bat1</t>
+  </si>
+  <si>
+    <t>P_CHP1_net2</t>
+  </si>
+  <si>
+    <t>CHP1_inv_cost</t>
+  </si>
+  <si>
+    <t>P_CHP1_net1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_net2</t>
+  </si>
+  <si>
+    <t>P_CHP1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_CHP1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_from_CHP1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_net1</t>
+  </si>
+  <si>
+    <t>P_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>CHP1_fuel_cons</t>
   </si>
   <si>
     <t>CHP1_op_cost</t>
   </si>
   <si>
-    <t>P_CHP1_net2</t>
-  </si>
-  <si>
-    <t>Q_CHP1_net2</t>
-  </si>
-  <si>
-    <t>P_CHP1_bat2</t>
-  </si>
-  <si>
-    <t>P_CHP1_bat1</t>
-  </si>
-  <si>
-    <t>CHP1_inv_cost</t>
-  </si>
-  <si>
-    <t>P_CHP1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_CHP1_net1</t>
-  </si>
-  <si>
-    <t>P_CHP1_charging_station2</t>
-  </si>
-  <si>
-    <t>P_from_CHP1</t>
-  </si>
-  <si>
-    <t>P_CHP1_heat_pump2</t>
-  </si>
-  <si>
-    <t>Q_CHP1_net1</t>
-  </si>
-  <si>
     <t>Q_from_CHP1</t>
   </si>
   <si>
-    <t>P_CHP1_heat_pump1</t>
-  </si>
-  <si>
-    <t>Q_CHP1_demand1</t>
-  </si>
-  <si>
-    <t>P_CHP1_demand1</t>
-  </si>
-  <si>
-    <t>P_CHP1_demand2</t>
-  </si>
-  <si>
     <t>Q_CHP1_demand2</t>
   </si>
   <si>
-    <t>CHP1_emissions</t>
-  </si>
-  <si>
-    <t>CHP1_fuel_cons</t>
+    <t>P_CHP2_net2</t>
+  </si>
+  <si>
+    <t>P_CHP2_bat2</t>
+  </si>
+  <si>
+    <t>P_from_CHP2</t>
+  </si>
+  <si>
+    <t>CHP2_op_cost</t>
+  </si>
+  <si>
+    <t>Q_CHP2_net1</t>
+  </si>
+  <si>
+    <t>P_CHP2_heat_pump2</t>
+  </si>
+  <si>
+    <t>Q_CHP2_net2</t>
+  </si>
+  <si>
+    <t>Q_CHP2_demand1</t>
+  </si>
+  <si>
+    <t>CHP2_fuel_cons</t>
+  </si>
+  <si>
+    <t>P_CHP2_charging_station1</t>
+  </si>
+  <si>
+    <t>CHP2_inv_cost</t>
+  </si>
+  <si>
+    <t>P_CHP2_bat1</t>
+  </si>
+  <si>
+    <t>P_CHP2_demand1</t>
+  </si>
+  <si>
+    <t>Q_from_CHP2</t>
+  </si>
+  <si>
+    <t>Q_CHP2_demand2</t>
   </si>
   <si>
     <t>P_CHP2_heat_pump1</t>
   </si>
   <si>
-    <t>Q_CHP2_net1</t>
-  </si>
-  <si>
-    <t>P_CHP2_bat2</t>
-  </si>
-  <si>
-    <t>P_CHP2_charging_station1</t>
-  </si>
-  <si>
-    <t>Q_CHP2_demand1</t>
-  </si>
-  <si>
-    <t>CHP2_fuel_cons</t>
-  </si>
-  <si>
-    <t>P_CHP2_heat_pump2</t>
-  </si>
-  <si>
-    <t>P_CHP2_net2</t>
+    <t>P_CHP2_net1</t>
+  </si>
+  <si>
+    <t>CHP2_emissions</t>
   </si>
   <si>
     <t>P_CHP2_demand2</t>
   </si>
   <si>
-    <t>P_from_CHP2</t>
-  </si>
-  <si>
     <t>P_CHP2_charging_station2</t>
   </si>
   <si>
-    <t>CHP2_emissions</t>
-  </si>
-  <si>
-    <t>Q_from_CHP2</t>
-  </si>
-  <si>
-    <t>CHP2_op_cost</t>
-  </si>
-  <si>
-    <t>P_CHP2_net1</t>
-  </si>
-  <si>
-    <t>Q_CHP2_net2</t>
-  </si>
-  <si>
-    <t>CHP2_inv_cost</t>
-  </si>
-  <si>
-    <t>P_CHP2_demand1</t>
-  </si>
-  <si>
-    <t>P_CHP2_bat1</t>
-  </si>
-  <si>
-    <t>Q_CHP2_demand2</t>
+    <t>Q_solar_th1_net2</t>
+  </si>
+  <si>
+    <t>Q_from_solar_th1</t>
   </si>
   <si>
     <t>Q_solar_th1_demand1</t>
   </si>
   <si>
+    <t>Q_solar_th1_net1</t>
+  </si>
+  <si>
+    <t>solar_th1_op_cost</t>
+  </si>
+  <si>
     <t>solar_th1_inv_cost</t>
   </si>
   <si>
-    <t>Q_solar_th1_net2</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_net1</t>
-  </si>
-  <si>
-    <t>solar_th1_op_cost</t>
-  </si>
-  <si>
     <t>solar_th1_emissions</t>
   </si>
   <si>
     <t>Q_solar_th1_demand2</t>
   </si>
   <si>
-    <t>Q_from_solar_th1</t>
+    <t>Q_solar_th2_net1</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_net2</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_demand2</t>
+  </si>
+  <si>
+    <t>solar_th2_emissions</t>
   </si>
   <si>
     <t>Q_from_solar_th2</t>
   </si>
   <si>
+    <t>solar_th2_op_cost</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_demand1</t>
+  </si>
+  <si>
     <t>solar_th2_inv_cost</t>
   </si>
   <si>
-    <t>Q_solar_th2_net1</t>
-  </si>
-  <si>
-    <t>solar_th2_emissions</t>
-  </si>
-  <si>
-    <t>Q_solar_th2_net2</t>
-  </si>
-  <si>
-    <t>solar_th2_op_cost</t>
-  </si>
-  <si>
-    <t>Q_solar_th2_demand1</t>
-  </si>
-  <si>
-    <t>Q_solar_th2_demand2</t>
+    <t>P_pvt1_bat2</t>
+  </si>
+  <si>
+    <t>P_from_pvt1</t>
+  </si>
+  <si>
+    <t>pvt1_emissions</t>
+  </si>
+  <si>
+    <t>pvt1_inv_cost</t>
+  </si>
+  <si>
+    <t>P_pvt1_bat1</t>
+  </si>
+  <si>
+    <t>P_pvt1_net2</t>
+  </si>
+  <si>
+    <t>pvt1_op_cost</t>
+  </si>
+  <si>
+    <t>P_pvt1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_pvt1_charging_station2</t>
+  </si>
+  <si>
+    <t>Q_pvt1_net1</t>
+  </si>
+  <si>
+    <t>Q_from_pvt1</t>
+  </si>
+  <si>
+    <t>P_pvt1_net1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_demand2</t>
   </si>
   <si>
     <t>P_pvt1_demand1</t>
   </si>
   <si>
-    <t>Q_pvt1_net1</t>
-  </si>
-  <si>
-    <t>pvt1_inv_cost</t>
-  </si>
-  <si>
-    <t>P_pvt1_heat_pump2</t>
+    <t>P_pvt1_heat_pump1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_net2</t>
   </si>
   <si>
     <t>P_pvt1_charging_station1</t>
   </si>
   <si>
+    <t>Q_pvt1_demand1</t>
+  </si>
+  <si>
     <t>P_pvt1_demand2</t>
   </si>
   <si>
-    <t>Q_from_pvt1</t>
-  </si>
-  <si>
-    <t>P_from_pvt1</t>
-  </si>
-  <si>
-    <t>Q_pvt1_net2</t>
-  </si>
-  <si>
-    <t>P_pvt1_bat2</t>
-  </si>
-  <si>
-    <t>P_pvt1_net1</t>
-  </si>
-  <si>
-    <t>P_pvt1_heat_pump1</t>
-  </si>
-  <si>
-    <t>pvt1_op_cost</t>
-  </si>
-  <si>
-    <t>P_pvt1_bat1</t>
-  </si>
-  <si>
-    <t>pvt1_emissions</t>
-  </si>
-  <si>
-    <t>Q_pvt1_demand1</t>
-  </si>
-  <si>
-    <t>P_pvt1_charging_station2</t>
-  </si>
-  <si>
-    <t>P_pvt1_net2</t>
-  </si>
-  <si>
-    <t>Q_pvt1_demand2</t>
+    <t>P_pvt2_bat1</t>
+  </si>
+  <si>
+    <t>P_pvt2_demand2</t>
   </si>
   <si>
     <t>P_pvt2_net1</t>
   </si>
   <si>
+    <t>Q_from_pvt2</t>
+  </si>
+  <si>
+    <t>P_from_pvt2</t>
+  </si>
+  <si>
+    <t>P_pvt2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pvt2_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_pvt2_bat2</t>
+  </si>
+  <si>
+    <t>pvt2_emissions</t>
+  </si>
+  <si>
+    <t>Q_pvt2_demand1</t>
+  </si>
+  <si>
     <t>P_pvt2_charging_station1</t>
   </si>
   <si>
+    <t>P_pvt2_demand1</t>
+  </si>
+  <si>
     <t>Q_pvt2_net2</t>
   </si>
   <si>
     <t>P_pvt2_net2</t>
   </si>
   <si>
-    <t>P_pvt2_charging_station2</t>
-  </si>
-  <si>
-    <t>P_pvt2_demand1</t>
-  </si>
-  <si>
-    <t>P_pvt2_demand2</t>
-  </si>
-  <si>
-    <t>P_pvt2_heat_pump2</t>
-  </si>
-  <si>
-    <t>pvt2_emissions</t>
-  </si>
-  <si>
-    <t>P_from_pvt2</t>
+    <t>P_pvt2_heat_pump1</t>
+  </si>
+  <si>
+    <t>Q_pvt2_net1</t>
+  </si>
+  <si>
+    <t>pvt2_inv_cost</t>
   </si>
   <si>
     <t>Q_pvt2_demand2</t>
   </si>
   <si>
-    <t>Q_pvt2_net1</t>
-  </si>
-  <si>
-    <t>P_pvt2_bat1</t>
-  </si>
-  <si>
-    <t>P_pvt2_bat2</t>
-  </si>
-  <si>
-    <t>Q_from_pvt2</t>
-  </si>
-  <si>
-    <t>P_pvt2_heat_pump1</t>
-  </si>
-  <si>
     <t>pvt2_op_cost</t>
   </si>
   <si>
-    <t>pvt2_inv_cost</t>
-  </si>
-  <si>
-    <t>Q_pvt2_demand1</t>
-  </si>
-  <si>
     <t>charging_station1_inv_cost</t>
   </si>
   <si>
+    <t>charging_station1_op_cost</t>
+  </si>
+  <si>
     <t>charging_station1_emissions</t>
   </si>
   <si>
-    <t>charging_station1_op_cost</t>
+    <t>charging_station2_emissions</t>
   </si>
   <si>
     <t>charging_station2_inv_cost</t>
   </si>
   <si>
-    <t>charging_station2_emissions</t>
-  </si>
-  <si>
     <t>charging_station2_op_cost</t>
   </si>
   <si>
+    <t>Q_heat_pump1_net1</t>
+  </si>
+  <si>
+    <t>heat_pump1_op_cost</t>
+  </si>
+  <si>
+    <t>heat_pump1_emissions</t>
+  </si>
+  <si>
+    <t>Q_from_heat_pump1</t>
+  </si>
+  <si>
+    <t>Q_to_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_from_heat_pump1</t>
+  </si>
+  <si>
     <t>heat_pump1_inv_cost</t>
   </si>
   <si>
+    <t>Q_heat_pump1_net2</t>
+  </si>
+  <si>
     <t>Q_heat_pump1_demand1</t>
   </si>
   <si>
-    <t>P_from_heat_pump1</t>
-  </si>
-  <si>
-    <t>Q_to_heat_pump1</t>
-  </si>
-  <si>
-    <t>Q_heat_pump1_net2</t>
+    <t>Q_heat_pump1_demand2</t>
   </si>
   <si>
     <t>P_to_heat_pump1</t>
   </si>
   <si>
-    <t>Q_heat_pump1_net1</t>
-  </si>
-  <si>
-    <t>Q_from_heat_pump1</t>
-  </si>
-  <si>
-    <t>heat_pump1_op_cost</t>
-  </si>
-  <si>
-    <t>Q_heat_pump1_demand2</t>
-  </si>
-  <si>
-    <t>heat_pump1_emissions</t>
+    <t>P_to_heat_pump2</t>
+  </si>
+  <si>
+    <t>Q_from_heat_pump2</t>
+  </si>
+  <si>
+    <t>heat_pump2_emissions</t>
   </si>
   <si>
     <t>P_from_heat_pump2</t>
   </si>
   <si>
-    <t>heat_pump2_emissions</t>
+    <t>Q_heat_pump2_demand2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_net1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_net2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_demand1</t>
+  </si>
+  <si>
+    <t>heat_pump2_op_cost</t>
   </si>
   <si>
     <t>heat_pump2_inv_cost</t>
   </si>
   <si>
-    <t>Q_from_heat_pump2</t>
-  </si>
-  <si>
-    <t>P_to_heat_pump2</t>
-  </si>
-  <si>
-    <t>heat_pump2_op_cost</t>
-  </si>
-  <si>
-    <t>Q_heat_pump2_net2</t>
-  </si>
-  <si>
-    <t>Q_heat_pump2_demand2</t>
-  </si>
-  <si>
-    <t>Q_heat_pump2_net1</t>
-  </si>
-  <si>
-    <t>Q_heat_pump2_demand1</t>
-  </si>
-  <si>
     <t>Q_to_heat_pump2</t>
   </si>
   <si>
+    <t>total_emissions</t>
+  </si>
+  <si>
+    <t>total_sell</t>
+  </si>
+  <si>
+    <t>total_buy</t>
+  </si>
+  <si>
     <t>total_operation_cost</t>
-  </si>
-  <si>
-    <t>total_emissions</t>
-  </si>
-  <si>
-    <t>total_sell</t>
-  </si>
-  <si>
-    <t>total_buy</t>
   </si>
 </sst>
 </file>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>614.2057017224695</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1848,16 +1848,16 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1392.523757176956</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1872,13 +1872,13 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>472.5237571769562</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>431.6823647248564</v>
       </c>
       <c r="Z2">
-        <v>278.5047514353913</v>
+        <v>88.20900191385499</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>401.7225047846375</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1896,22 +1896,22 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1392.523757176956</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>720.5225047846375</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>220.5225047846375</v>
       </c>
       <c r="AJ2">
-        <v>837.24</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>318.8</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1926,22 +1926,22 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>737.6983044018665</v>
+        <v>123.492602679397</v>
       </c>
       <c r="AQ2">
-        <v>555.2837571769562</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>220.5225047846375</v>
       </c>
       <c r="AS2">
-        <v>288.209001913855</v>
+        <v>0</v>
       </c>
       <c r="AT2">
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BK2">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="BO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP2">
         <v>0</v>
@@ -2010,17 +2010,17 @@
         <v>0</v>
       </c>
       <c r="BR2">
+        <v>1.8</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
         <v>0.8999999999999999</v>
       </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>1.8</v>
-      </c>
-      <c r="BU2">
-        <v>1.8</v>
-      </c>
       <c r="BV2">
         <v>0</v>
       </c>
@@ -2028,70 +2028,70 @@
         <v>0</v>
       </c>
       <c r="BX2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>20</v>
+        <v>3.166666666666667E-06</v>
       </c>
       <c r="CA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB2">
         <v>0.2777777777777777</v>
       </c>
       <c r="CC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="CF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CI2">
         <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CK2">
-        <v>3.166666666666667E-06</v>
+        <v>100</v>
       </c>
       <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
         <v>0.9999968333333331</v>
       </c>
-      <c r="CM2">
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
         <v>100</v>
       </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
       <c r="CQ2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT2">
         <v>0</v>
@@ -2100,19 +2100,19 @@
         <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.5</v>
+        <v>0.2777777777777777</v>
       </c>
       <c r="CW2">
         <v>0</v>
       </c>
       <c r="CX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY2">
         <v>0</v>
       </c>
       <c r="CZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA2">
         <v>0</v>
@@ -2121,139 +2121,139 @@
         <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.2777777777777778</v>
+        <v>100</v>
       </c>
       <c r="DD2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
         <v>-0</v>
       </c>
-      <c r="DF2">
-        <v>0</v>
-      </c>
-      <c r="DG2">
-        <v>100</v>
-      </c>
       <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>4.83</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
+      <c r="DT2">
+        <v>20</v>
+      </c>
+      <c r="DU2">
+        <v>20</v>
+      </c>
+      <c r="DV2">
+        <v>0</v>
+      </c>
+      <c r="DW2">
+        <v>0</v>
+      </c>
+      <c r="DX2">
+        <v>2.1</v>
+      </c>
+      <c r="DY2">
         <v>10.5</v>
       </c>
-      <c r="DI2">
-        <v>0</v>
-      </c>
-      <c r="DJ2">
-        <v>0</v>
-      </c>
-      <c r="DK2">
-        <v>0</v>
-      </c>
-      <c r="DL2">
-        <v>0</v>
-      </c>
-      <c r="DM2">
-        <v>0</v>
-      </c>
-      <c r="DN2">
-        <v>0</v>
-      </c>
-      <c r="DO2">
-        <v>0</v>
-      </c>
-      <c r="DP2">
-        <v>0</v>
-      </c>
-      <c r="DQ2">
+      <c r="DZ2">
+        <v>40</v>
+      </c>
+      <c r="EA2">
+        <v>40</v>
+      </c>
+      <c r="EB2">
+        <v>0</v>
+      </c>
+      <c r="EC2">
+        <v>0</v>
+      </c>
+      <c r="ED2">
         <v>20</v>
       </c>
-      <c r="DR2">
-        <v>0</v>
-      </c>
-      <c r="DS2">
-        <v>0</v>
-      </c>
-      <c r="DT2">
+      <c r="EE2">
+        <v>10.5</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2">
+        <v>0</v>
+      </c>
+      <c r="EH2">
+        <v>0</v>
+      </c>
+      <c r="EI2">
+        <v>0</v>
+      </c>
+      <c r="EJ2">
+        <v>2.1</v>
+      </c>
+      <c r="EK2">
+        <v>0</v>
+      </c>
+      <c r="EL2">
+        <v>0</v>
+      </c>
+      <c r="EM2">
+        <v>0</v>
+      </c>
+      <c r="EN2">
+        <v>0</v>
+      </c>
+      <c r="EO2">
         <v>40</v>
       </c>
-      <c r="DU2">
-        <v>0</v>
-      </c>
-      <c r="DV2">
-        <v>0</v>
-      </c>
-      <c r="DW2">
+      <c r="EP2">
+        <v>40</v>
+      </c>
+      <c r="EQ2">
         <v>20</v>
       </c>
-      <c r="DX2">
-        <v>0</v>
-      </c>
-      <c r="DY2">
-        <v>40</v>
-      </c>
-      <c r="DZ2">
+      <c r="ER2">
+        <v>0</v>
+      </c>
+      <c r="ES2">
         <v>4.83</v>
       </c>
-      <c r="EA2">
-        <v>2.1</v>
-      </c>
-      <c r="EB2">
-        <v>18.8</v>
-      </c>
-      <c r="EC2">
-        <v>0</v>
-      </c>
-      <c r="ED2">
-        <v>0</v>
-      </c>
-      <c r="EE2">
-        <v>0</v>
-      </c>
-      <c r="EF2">
-        <v>0</v>
-      </c>
-      <c r="EG2">
-        <v>2.1</v>
-      </c>
-      <c r="EH2">
-        <v>0</v>
-      </c>
-      <c r="EI2">
-        <v>0</v>
-      </c>
-      <c r="EJ2">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="EK2">
-        <v>20</v>
-      </c>
-      <c r="EL2">
-        <v>0</v>
-      </c>
-      <c r="EM2">
-        <v>4.83</v>
-      </c>
-      <c r="EN2">
-        <v>40</v>
-      </c>
-      <c r="EO2">
-        <v>10.5</v>
-      </c>
-      <c r="EP2">
-        <v>0</v>
-      </c>
-      <c r="EQ2">
-        <v>0</v>
-      </c>
-      <c r="ER2">
-        <v>0</v>
-      </c>
-      <c r="ES2">
-        <v>0</v>
-      </c>
       <c r="ET2">
         <v>0</v>
       </c>
       <c r="EU2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EV2">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="FD2">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="FE2">
         <v>0</v>
@@ -2292,88 +2292,88 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="FH2">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="FI2">
         <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="FK2">
+        <v>0</v>
+      </c>
+      <c r="FL2">
+        <v>0</v>
+      </c>
+      <c r="FM2">
+        <v>0</v>
+      </c>
+      <c r="FN2">
+        <v>0</v>
+      </c>
+      <c r="FO2">
+        <v>0</v>
+      </c>
+      <c r="FP2">
+        <v>0</v>
+      </c>
+      <c r="FQ2">
+        <v>0</v>
+      </c>
+      <c r="FR2">
+        <v>1</v>
+      </c>
+      <c r="FS2">
+        <v>0</v>
+      </c>
+      <c r="FT2">
+        <v>0</v>
+      </c>
+      <c r="FU2">
+        <v>0</v>
+      </c>
+      <c r="FV2">
+        <v>0</v>
+      </c>
+      <c r="FW2">
+        <v>0</v>
+      </c>
+      <c r="FX2">
+        <v>0</v>
+      </c>
+      <c r="FY2">
+        <v>0</v>
+      </c>
+      <c r="FZ2">
+        <v>0</v>
+      </c>
+      <c r="GA2">
+        <v>0</v>
+      </c>
+      <c r="GB2">
+        <v>0</v>
+      </c>
+      <c r="GC2">
+        <v>0</v>
+      </c>
+      <c r="GD2">
+        <v>0</v>
+      </c>
+      <c r="GE2">
+        <v>0</v>
+      </c>
+      <c r="GF2">
+        <v>0</v>
+      </c>
+      <c r="GG2">
+        <v>0</v>
+      </c>
+      <c r="GH2">
+        <v>1.56</v>
+      </c>
+      <c r="GI2">
         <v>1.2</v>
-      </c>
-      <c r="FL2">
-        <v>0</v>
-      </c>
-      <c r="FM2">
-        <v>0</v>
-      </c>
-      <c r="FN2">
-        <v>0</v>
-      </c>
-      <c r="FO2">
-        <v>0</v>
-      </c>
-      <c r="FP2">
-        <v>0</v>
-      </c>
-      <c r="FQ2">
-        <v>0</v>
-      </c>
-      <c r="FR2">
-        <v>0</v>
-      </c>
-      <c r="FS2">
-        <v>0</v>
-      </c>
-      <c r="FT2">
-        <v>0</v>
-      </c>
-      <c r="FU2">
-        <v>0</v>
-      </c>
-      <c r="FV2">
-        <v>0</v>
-      </c>
-      <c r="FW2">
-        <v>0</v>
-      </c>
-      <c r="FX2">
-        <v>1</v>
-      </c>
-      <c r="FY2">
-        <v>0</v>
-      </c>
-      <c r="FZ2">
-        <v>0</v>
-      </c>
-      <c r="GA2">
-        <v>0</v>
-      </c>
-      <c r="GB2">
-        <v>0</v>
-      </c>
-      <c r="GC2">
-        <v>0</v>
-      </c>
-      <c r="GD2">
-        <v>0</v>
-      </c>
-      <c r="GE2">
-        <v>0</v>
-      </c>
-      <c r="GF2">
-        <v>0</v>
-      </c>
-      <c r="GG2">
-        <v>0</v>
-      </c>
-      <c r="GH2">
-        <v>0</v>
-      </c>
-      <c r="GI2">
-        <v>0</v>
       </c>
       <c r="GJ2">
         <v>0</v>
@@ -2388,14 +2388,14 @@
         <v>0.7800000000000001</v>
       </c>
       <c r="GN2">
+        <v>1.56</v>
+      </c>
+      <c r="GO2">
+        <v>0</v>
+      </c>
+      <c r="GP2">
         <v>1.2</v>
       </c>
-      <c r="GO2">
-        <v>1.56</v>
-      </c>
-      <c r="GP2">
-        <v>0</v>
-      </c>
       <c r="GQ2">
         <v>0</v>
       </c>
@@ -2403,19 +2403,19 @@
         <v>0</v>
       </c>
       <c r="GS2">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="GT2">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GV2">
         <v>0</v>
       </c>
       <c r="GW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX2">
         <v>0</v>
@@ -2439,79 +2439,79 @@
         <v>0</v>
       </c>
       <c r="HE2">
-        <v>0</v>
+        <v>8.561643835616438</v>
       </c>
       <c r="HF2">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="HG2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="HH2">
         <v>0</v>
       </c>
       <c r="HI2">
+        <v>0</v>
+      </c>
+      <c r="HJ2">
+        <v>0</v>
+      </c>
+      <c r="HK2">
+        <v>0</v>
+      </c>
+      <c r="HL2">
+        <v>80</v>
+      </c>
+      <c r="HM2">
+        <v>0</v>
+      </c>
+      <c r="HN2">
         <v>20</v>
       </c>
-      <c r="HJ2">
-        <v>0</v>
-      </c>
-      <c r="HK2">
+      <c r="HO2">
+        <v>20</v>
+      </c>
+      <c r="HP2">
         <v>80</v>
       </c>
-      <c r="HL2">
+      <c r="HQ2">
+        <v>2.76</v>
+      </c>
+      <c r="HR2">
+        <v>0</v>
+      </c>
+      <c r="HS2">
+        <v>0</v>
+      </c>
+      <c r="HT2">
+        <v>0</v>
+      </c>
+      <c r="HU2">
+        <v>0</v>
+      </c>
+      <c r="HV2">
+        <v>80</v>
+      </c>
+      <c r="HW2">
         <v>8.561643835616438</v>
       </c>
-      <c r="HM2">
-        <v>80</v>
-      </c>
-      <c r="HN2">
-        <v>2.76</v>
-      </c>
-      <c r="HO2">
-        <v>0</v>
-      </c>
-      <c r="HP2">
-        <v>2.76</v>
-      </c>
-      <c r="HQ2">
-        <v>0</v>
-      </c>
-      <c r="HR2">
-        <v>80</v>
-      </c>
-      <c r="HS2">
-        <v>20</v>
-      </c>
-      <c r="HT2">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="HU2">
-        <v>0</v>
-      </c>
-      <c r="HV2">
-        <v>0</v>
-      </c>
-      <c r="HW2">
-        <v>0</v>
-      </c>
       <c r="HX2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="HY2">
         <v>0</v>
       </c>
       <c r="HZ2">
+        <v>754.333859957422</v>
+      </c>
+      <c r="IA2">
+        <v>0</v>
+      </c>
+      <c r="IB2">
+        <v>749.8913666387114</v>
+      </c>
+      <c r="IC2">
         <v>42.12328767123287</v>
-      </c>
-      <c r="IA2">
-        <v>754.333859957422</v>
-      </c>
-      <c r="IB2">
-        <v>0</v>
-      </c>
-      <c r="IC2">
-        <v>566.7137533492462</v>
       </c>
     </row>
     <row r="3" spans="1:237">
@@ -2531,19 +2531,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>219.208</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>579.6296802599179</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>498.2</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>498.2</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1252.657001082991</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -2585,13 +2585,13 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>292.6570010829909</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>438.4299503790468</v>
       </c>
       <c r="Z3">
-        <v>250.5314002165982</v>
+        <v>131.6312002887976</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>328.478000721994</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -2609,22 +2609,22 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1252.657001082991</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>827.278000721994</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>329.0780007219939</v>
       </c>
       <c r="AJ3">
-        <v>837.24</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>498.8</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -2639,22 +2639,22 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>763.9133606642345</v>
+        <v>184.2836804043166</v>
       </c>
       <c r="AQ3">
-        <v>415.4170010829909</v>
+        <v>20</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>289.0780007219939</v>
       </c>
       <c r="AS3">
-        <v>330.9112002887976</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV3">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BK3">
         <v>0</v>
@@ -2708,34 +2708,34 @@
         <v>0</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BN3">
         <v>0</v>
       </c>
       <c r="BO3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
         <v>0.8999999999999999</v>
       </c>
-      <c r="BQ3">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="BR3">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="BS3">
-        <v>0</v>
-      </c>
-      <c r="BT3">
-        <v>1.8</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
       <c r="BV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -2744,88 +2744,88 @@
         <v>0</v>
       </c>
       <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>3.166666666666667E-06</v>
+      </c>
+      <c r="CA3">
+        <v>1</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
         <v>-0</v>
       </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>1</v>
-      </c>
       <c r="CD3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="CF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0.9999968333333333</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0.5</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>1</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
         <v>-0</v>
       </c>
-      <c r="CH3">
-        <v>0.3</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>3.166666666666667E-06</v>
-      </c>
-      <c r="CL3">
-        <v>0.9999968333333333</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
-        <v>1</v>
-      </c>
-      <c r="CQ3">
-        <v>0</v>
-      </c>
-      <c r="CR3">
-        <v>0</v>
-      </c>
-      <c r="CS3">
-        <v>0</v>
-      </c>
-      <c r="CT3">
-        <v>0</v>
-      </c>
-      <c r="CU3">
-        <v>0</v>
-      </c>
-      <c r="CV3">
-        <v>0.5</v>
-      </c>
-      <c r="CW3">
-        <v>0</v>
-      </c>
-      <c r="CX3">
-        <v>1</v>
-      </c>
       <c r="CY3">
         <v>0</v>
       </c>
       <c r="CZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA3">
         <v>0</v>
@@ -2840,133 +2840,133 @@
         <v>0</v>
       </c>
       <c r="DE3">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="DF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG3">
         <v>-0</v>
       </c>
       <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>4.83</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0</v>
+      </c>
+      <c r="DU3">
+        <v>20</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>20</v>
+      </c>
+      <c r="DX3">
+        <v>2.1</v>
+      </c>
+      <c r="DY3">
         <v>10.5</v>
       </c>
-      <c r="DI3">
-        <v>0</v>
-      </c>
-      <c r="DJ3">
-        <v>0</v>
-      </c>
-      <c r="DK3">
-        <v>0</v>
-      </c>
-      <c r="DL3">
-        <v>0</v>
-      </c>
-      <c r="DM3">
-        <v>0</v>
-      </c>
-      <c r="DN3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
-        <v>0</v>
-      </c>
-      <c r="DP3">
-        <v>0</v>
-      </c>
-      <c r="DQ3">
+      <c r="DZ3">
+        <v>40</v>
+      </c>
+      <c r="EA3">
+        <v>40</v>
+      </c>
+      <c r="EB3">
+        <v>0</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3">
         <v>20</v>
       </c>
-      <c r="DR3">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="DS3">
-        <v>0</v>
-      </c>
-      <c r="DT3">
+      <c r="EE3">
+        <v>10.5</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EH3">
+        <v>0</v>
+      </c>
+      <c r="EI3">
         <v>40</v>
       </c>
-      <c r="DU3">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="DV3">
-        <v>0</v>
-      </c>
-      <c r="DW3">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="DX3">
-        <v>0</v>
-      </c>
-      <c r="DY3">
+      <c r="EJ3">
+        <v>2.1</v>
+      </c>
+      <c r="EK3">
+        <v>0</v>
+      </c>
+      <c r="EL3">
+        <v>0</v>
+      </c>
+      <c r="EM3">
+        <v>0</v>
+      </c>
+      <c r="EN3">
+        <v>20</v>
+      </c>
+      <c r="EO3">
         <v>40</v>
       </c>
-      <c r="DZ3">
+      <c r="EP3">
+        <v>0</v>
+      </c>
+      <c r="EQ3">
+        <v>0</v>
+      </c>
+      <c r="ER3">
+        <v>0</v>
+      </c>
+      <c r="ES3">
         <v>4.83</v>
       </c>
-      <c r="EA3">
-        <v>2.1</v>
-      </c>
-      <c r="EB3">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="EC3">
-        <v>0</v>
-      </c>
-      <c r="ED3">
-        <v>0</v>
-      </c>
-      <c r="EE3">
-        <v>0</v>
-      </c>
-      <c r="EF3">
-        <v>0</v>
-      </c>
-      <c r="EG3">
-        <v>2.1</v>
-      </c>
-      <c r="EH3">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="EI3">
-        <v>0</v>
-      </c>
-      <c r="EJ3">
-        <v>0</v>
-      </c>
-      <c r="EK3">
-        <v>20</v>
-      </c>
-      <c r="EL3">
-        <v>0</v>
-      </c>
-      <c r="EM3">
-        <v>4.83</v>
-      </c>
-      <c r="EN3">
-        <v>40</v>
-      </c>
-      <c r="EO3">
-        <v>10.5</v>
-      </c>
-      <c r="EP3">
-        <v>0</v>
-      </c>
-      <c r="EQ3">
-        <v>0</v>
-      </c>
-      <c r="ER3">
-        <v>0</v>
-      </c>
-      <c r="ES3">
-        <v>0.8999999999999986</v>
-      </c>
       <c r="ET3">
         <v>0</v>
       </c>
       <c r="EU3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EV3">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="FD3">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="FE3">
         <v>0</v>
@@ -3005,94 +3005,94 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="FH3">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="FI3">
         <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="FK3">
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>0</v>
+      </c>
+      <c r="FN3">
+        <v>0</v>
+      </c>
+      <c r="FO3">
+        <v>0</v>
+      </c>
+      <c r="FP3">
+        <v>0</v>
+      </c>
+      <c r="FQ3">
+        <v>0</v>
+      </c>
+      <c r="FR3">
+        <v>1</v>
+      </c>
+      <c r="FS3">
+        <v>0</v>
+      </c>
+      <c r="FT3">
+        <v>0</v>
+      </c>
+      <c r="FU3">
+        <v>0</v>
+      </c>
+      <c r="FV3">
+        <v>0</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>0</v>
+      </c>
+      <c r="FY3">
+        <v>0</v>
+      </c>
+      <c r="FZ3">
+        <v>0</v>
+      </c>
+      <c r="GA3">
+        <v>0</v>
+      </c>
+      <c r="GB3">
+        <v>0</v>
+      </c>
+      <c r="GC3">
+        <v>0</v>
+      </c>
+      <c r="GD3">
+        <v>0</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>1.56</v>
+      </c>
+      <c r="GI3">
         <v>1.2</v>
       </c>
-      <c r="FL3">
-        <v>0</v>
-      </c>
-      <c r="FM3">
-        <v>0</v>
-      </c>
-      <c r="FN3">
-        <v>0</v>
-      </c>
-      <c r="FO3">
-        <v>0</v>
-      </c>
-      <c r="FP3">
-        <v>0</v>
-      </c>
-      <c r="FQ3">
-        <v>0</v>
-      </c>
-      <c r="FR3">
-        <v>0</v>
-      </c>
-      <c r="FS3">
-        <v>0</v>
-      </c>
-      <c r="FT3">
-        <v>0</v>
-      </c>
-      <c r="FU3">
-        <v>0</v>
-      </c>
-      <c r="FV3">
-        <v>0</v>
-      </c>
-      <c r="FW3">
-        <v>0</v>
-      </c>
-      <c r="FX3">
-        <v>1</v>
-      </c>
-      <c r="FY3">
-        <v>0</v>
-      </c>
-      <c r="FZ3">
-        <v>0</v>
-      </c>
-      <c r="GA3">
-        <v>0</v>
-      </c>
-      <c r="GB3">
-        <v>0</v>
-      </c>
-      <c r="GC3">
-        <v>0</v>
-      </c>
-      <c r="GD3">
-        <v>0</v>
-      </c>
-      <c r="GE3">
-        <v>0</v>
-      </c>
-      <c r="GF3">
-        <v>0</v>
-      </c>
-      <c r="GG3">
-        <v>0</v>
-      </c>
-      <c r="GH3">
-        <v>0</v>
-      </c>
-      <c r="GI3">
-        <v>0</v>
-      </c>
       <c r="GJ3">
         <v>0</v>
       </c>
       <c r="GK3">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="GL3">
         <v>0</v>
@@ -3101,14 +3101,14 @@
         <v>0.7800000000000001</v>
       </c>
       <c r="GN3">
+        <v>1.56</v>
+      </c>
+      <c r="GO3">
+        <v>0</v>
+      </c>
+      <c r="GP3">
         <v>1.2</v>
       </c>
-      <c r="GO3">
-        <v>1.56</v>
-      </c>
-      <c r="GP3">
-        <v>0</v>
-      </c>
       <c r="GQ3">
         <v>0</v>
       </c>
@@ -3116,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="GS3">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
       </c>
       <c r="GU3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GV3">
         <v>0</v>
       </c>
       <c r="GW3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX3">
         <v>0</v>
@@ -3152,79 +3152,79 @@
         <v>0</v>
       </c>
       <c r="HE3">
-        <v>0</v>
+        <v>8.561643835616438</v>
       </c>
       <c r="HF3">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="HG3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="HH3">
         <v>0</v>
       </c>
       <c r="HI3">
+        <v>0</v>
+      </c>
+      <c r="HJ3">
+        <v>0</v>
+      </c>
+      <c r="HK3">
+        <v>0</v>
+      </c>
+      <c r="HL3">
+        <v>80</v>
+      </c>
+      <c r="HM3">
+        <v>0</v>
+      </c>
+      <c r="HN3">
         <v>20</v>
       </c>
-      <c r="HJ3">
-        <v>0</v>
-      </c>
-      <c r="HK3">
+      <c r="HO3">
+        <v>20</v>
+      </c>
+      <c r="HP3">
         <v>80</v>
       </c>
-      <c r="HL3">
+      <c r="HQ3">
+        <v>2.76</v>
+      </c>
+      <c r="HR3">
+        <v>0</v>
+      </c>
+      <c r="HS3">
+        <v>0</v>
+      </c>
+      <c r="HT3">
+        <v>0</v>
+      </c>
+      <c r="HU3">
+        <v>0</v>
+      </c>
+      <c r="HV3">
+        <v>80</v>
+      </c>
+      <c r="HW3">
         <v>8.561643835616438</v>
       </c>
-      <c r="HM3">
-        <v>80</v>
-      </c>
-      <c r="HN3">
-        <v>2.76</v>
-      </c>
-      <c r="HO3">
-        <v>0</v>
-      </c>
-      <c r="HP3">
-        <v>2.76</v>
-      </c>
-      <c r="HQ3">
-        <v>0</v>
-      </c>
-      <c r="HR3">
-        <v>80</v>
-      </c>
-      <c r="HS3">
-        <v>20</v>
-      </c>
-      <c r="HT3">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="HU3">
-        <v>0</v>
-      </c>
-      <c r="HV3">
-        <v>0</v>
-      </c>
-      <c r="HW3">
-        <v>0</v>
-      </c>
       <c r="HX3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="HY3">
         <v>0</v>
       </c>
       <c r="HZ3">
+        <v>779.9933606642346</v>
+      </c>
+      <c r="IA3">
+        <v>0</v>
+      </c>
+      <c r="IB3">
+        <v>789.2691506678444</v>
+      </c>
+      <c r="IC3">
         <v>42.12328767123287</v>
-      </c>
-      <c r="IA3">
-        <v>779.9933606642345</v>
-      </c>
-      <c r="IB3">
-        <v>0</v>
-      </c>
-      <c r="IC3">
-        <v>581.4426005053958</v>
       </c>
     </row>
     <row r="4" spans="1:237">
@@ -3244,25 +3244,25 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="G4">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>559.1659652796413</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="Q4">
-        <v>120.6981836440459</v>
+        <v>480</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>168.9774571016643</v>
+        <v>1209.858188665172</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3295,16 +3295,16 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.3120000000000001</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>301.7454591101147</v>
+        <v>369.8581886651721</v>
       </c>
       <c r="Y4">
-        <v>301.7454591101147</v>
+        <v>362.9574565995516</v>
       </c>
       <c r="Z4">
-        <v>242.2836377330344</v>
+        <v>127.4981836440459</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -3322,22 +3322,22 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1211.418188665172</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>318.7454591101147</v>
       </c>
       <c r="AJ4">
-        <v>838.8</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -3352,22 +3352,22 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>569.0603652796412</v>
+        <v>178.4974571016643</v>
       </c>
       <c r="AQ4">
-        <v>372.6181886651721</v>
+        <v>20</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>298.7454591101147</v>
       </c>
       <c r="AS4">
-        <v>198.8</v>
+        <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4">
         <v>0</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -3436,55 +3436,55 @@
         <v>0</v>
       </c>
       <c r="BR4">
+        <v>1.8</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
         <v>0.8999999999999999</v>
       </c>
-      <c r="BS4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
-        <v>1.8</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
       <c r="BV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW4">
         <v>0</v>
       </c>
       <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>3.166666666666667E-06</v>
+      </c>
+      <c r="CA4">
+        <v>1</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
         <v>-0</v>
       </c>
-      <c r="BY4">
+      <c r="CD4">
         <v>-0</v>
       </c>
-      <c r="BZ4">
-        <v>0</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4">
-        <v>0</v>
-      </c>
-      <c r="CC4">
-        <v>1</v>
-      </c>
-      <c r="CD4">
-        <v>0</v>
-      </c>
       <c r="CE4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="CF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG4">
         <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CI4">
         <v>0</v>
@@ -3493,31 +3493,31 @@
         <v>0</v>
       </c>
       <c r="CK4">
-        <v>3.166666666666667E-06</v>
+        <v>-0</v>
       </c>
       <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
         <v>0.9999968333333333</v>
       </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CR4">
         <v>0</v>
       </c>
       <c r="CS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT4">
         <v>0</v>
@@ -3526,19 +3526,19 @@
         <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CW4">
         <v>0</v>
       </c>
       <c r="CX4">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="CY4">
         <v>0</v>
       </c>
       <c r="CZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA4">
         <v>0</v>
@@ -3553,133 +3553,133 @@
         <v>0</v>
       </c>
       <c r="DE4">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="DF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG4">
         <v>-0</v>
       </c>
       <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>20</v>
+      </c>
+      <c r="DL4">
+        <v>4.83</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
+      <c r="DT4">
+        <v>0</v>
+      </c>
+      <c r="DU4">
+        <v>20</v>
+      </c>
+      <c r="DV4">
+        <v>0</v>
+      </c>
+      <c r="DW4">
+        <v>0</v>
+      </c>
+      <c r="DX4">
+        <v>2.1</v>
+      </c>
+      <c r="DY4">
         <v>10.5</v>
       </c>
-      <c r="DI4">
-        <v>0</v>
-      </c>
-      <c r="DJ4">
-        <v>0</v>
-      </c>
-      <c r="DK4">
-        <v>0</v>
-      </c>
-      <c r="DL4">
-        <v>0</v>
-      </c>
-      <c r="DM4">
-        <v>0</v>
-      </c>
-      <c r="DN4">
-        <v>0</v>
-      </c>
-      <c r="DO4">
-        <v>0</v>
-      </c>
-      <c r="DP4">
-        <v>0</v>
-      </c>
-      <c r="DQ4">
+      <c r="DZ4">
+        <v>40</v>
+      </c>
+      <c r="EA4">
+        <v>40</v>
+      </c>
+      <c r="EB4">
+        <v>0</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4">
         <v>20</v>
       </c>
-      <c r="DR4">
-        <v>10</v>
-      </c>
-      <c r="DS4">
-        <v>0</v>
-      </c>
-      <c r="DT4">
+      <c r="EE4">
+        <v>10.5</v>
+      </c>
+      <c r="EF4">
+        <v>0</v>
+      </c>
+      <c r="EG4">
+        <v>0</v>
+      </c>
+      <c r="EH4">
+        <v>0</v>
+      </c>
+      <c r="EI4">
+        <v>0</v>
+      </c>
+      <c r="EJ4">
+        <v>2.1</v>
+      </c>
+      <c r="EK4">
+        <v>0</v>
+      </c>
+      <c r="EL4">
+        <v>0</v>
+      </c>
+      <c r="EM4">
+        <v>0</v>
+      </c>
+      <c r="EN4">
+        <v>0</v>
+      </c>
+      <c r="EO4">
         <v>40</v>
       </c>
-      <c r="DU4">
-        <v>10</v>
-      </c>
-      <c r="DV4">
-        <v>0</v>
-      </c>
-      <c r="DW4">
-        <v>0</v>
-      </c>
-      <c r="DX4">
-        <v>0</v>
-      </c>
-      <c r="DY4">
+      <c r="EP4">
         <v>40</v>
       </c>
-      <c r="DZ4">
+      <c r="EQ4">
+        <v>0</v>
+      </c>
+      <c r="ER4">
+        <v>0</v>
+      </c>
+      <c r="ES4">
         <v>4.83</v>
       </c>
-      <c r="EA4">
-        <v>2.1</v>
-      </c>
-      <c r="EB4">
-        <v>10</v>
-      </c>
-      <c r="EC4">
-        <v>0</v>
-      </c>
-      <c r="ED4">
-        <v>0</v>
-      </c>
-      <c r="EE4">
-        <v>0</v>
-      </c>
-      <c r="EF4">
-        <v>0</v>
-      </c>
-      <c r="EG4">
-        <v>2.1</v>
-      </c>
-      <c r="EH4">
-        <v>10</v>
-      </c>
-      <c r="EI4">
-        <v>0</v>
-      </c>
-      <c r="EJ4">
-        <v>0</v>
-      </c>
-      <c r="EK4">
+      <c r="ET4">
         <v>20</v>
       </c>
-      <c r="EL4">
-        <v>0</v>
-      </c>
-      <c r="EM4">
-        <v>4.83</v>
-      </c>
-      <c r="EN4">
-        <v>40</v>
-      </c>
-      <c r="EO4">
-        <v>10.5</v>
-      </c>
-      <c r="EP4">
-        <v>0</v>
-      </c>
-      <c r="EQ4">
-        <v>0</v>
-      </c>
-      <c r="ER4">
-        <v>0</v>
-      </c>
-      <c r="ES4">
-        <v>0</v>
-      </c>
-      <c r="ET4">
-        <v>0</v>
-      </c>
       <c r="EU4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EV4">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="FD4">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="FE4">
         <v>0</v>
@@ -3718,94 +3718,94 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="FH4">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="FI4">
         <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="FK4">
+        <v>0</v>
+      </c>
+      <c r="FL4">
+        <v>0</v>
+      </c>
+      <c r="FM4">
+        <v>0</v>
+      </c>
+      <c r="FN4">
+        <v>0</v>
+      </c>
+      <c r="FO4">
+        <v>0</v>
+      </c>
+      <c r="FP4">
+        <v>0</v>
+      </c>
+      <c r="FQ4">
+        <v>0</v>
+      </c>
+      <c r="FR4">
+        <v>1</v>
+      </c>
+      <c r="FS4">
+        <v>0</v>
+      </c>
+      <c r="FT4">
+        <v>0</v>
+      </c>
+      <c r="FU4">
+        <v>0</v>
+      </c>
+      <c r="FV4">
+        <v>0</v>
+      </c>
+      <c r="FW4">
+        <v>0</v>
+      </c>
+      <c r="FX4">
+        <v>0</v>
+      </c>
+      <c r="FY4">
+        <v>0</v>
+      </c>
+      <c r="FZ4">
+        <v>0</v>
+      </c>
+      <c r="GA4">
+        <v>0</v>
+      </c>
+      <c r="GB4">
+        <v>0</v>
+      </c>
+      <c r="GC4">
+        <v>0</v>
+      </c>
+      <c r="GD4">
+        <v>0</v>
+      </c>
+      <c r="GE4">
+        <v>0</v>
+      </c>
+      <c r="GF4">
+        <v>0</v>
+      </c>
+      <c r="GG4">
+        <v>0</v>
+      </c>
+      <c r="GH4">
+        <v>1.56</v>
+      </c>
+      <c r="GI4">
         <v>1.2</v>
       </c>
-      <c r="FL4">
-        <v>0</v>
-      </c>
-      <c r="FM4">
-        <v>0</v>
-      </c>
-      <c r="FN4">
-        <v>0</v>
-      </c>
-      <c r="FO4">
-        <v>0</v>
-      </c>
-      <c r="FP4">
-        <v>0</v>
-      </c>
-      <c r="FQ4">
-        <v>0</v>
-      </c>
-      <c r="FR4">
-        <v>0</v>
-      </c>
-      <c r="FS4">
-        <v>0</v>
-      </c>
-      <c r="FT4">
-        <v>0</v>
-      </c>
-      <c r="FU4">
-        <v>0</v>
-      </c>
-      <c r="FV4">
-        <v>0</v>
-      </c>
-      <c r="FW4">
-        <v>0</v>
-      </c>
-      <c r="FX4">
-        <v>1</v>
-      </c>
-      <c r="FY4">
-        <v>0</v>
-      </c>
-      <c r="FZ4">
-        <v>0</v>
-      </c>
-      <c r="GA4">
-        <v>0</v>
-      </c>
-      <c r="GB4">
-        <v>0</v>
-      </c>
-      <c r="GC4">
-        <v>0</v>
-      </c>
-      <c r="GD4">
-        <v>0</v>
-      </c>
-      <c r="GE4">
-        <v>0</v>
-      </c>
-      <c r="GF4">
-        <v>0</v>
-      </c>
-      <c r="GG4">
-        <v>0</v>
-      </c>
-      <c r="GH4">
-        <v>0</v>
-      </c>
-      <c r="GI4">
-        <v>0</v>
-      </c>
       <c r="GJ4">
         <v>0</v>
       </c>
       <c r="GK4">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="GL4">
         <v>0</v>
@@ -3814,14 +3814,14 @@
         <v>0.7800000000000001</v>
       </c>
       <c r="GN4">
+        <v>1.56</v>
+      </c>
+      <c r="GO4">
+        <v>0</v>
+      </c>
+      <c r="GP4">
         <v>1.2</v>
       </c>
-      <c r="GO4">
-        <v>0</v>
-      </c>
-      <c r="GP4">
-        <v>1.56</v>
-      </c>
       <c r="GQ4">
         <v>0</v>
       </c>
@@ -3829,19 +3829,19 @@
         <v>0</v>
       </c>
       <c r="GS4">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GV4">
         <v>0</v>
       </c>
       <c r="GW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX4">
         <v>0</v>
@@ -3865,79 +3865,79 @@
         <v>0</v>
       </c>
       <c r="HE4">
-        <v>0</v>
+        <v>8.561643835616438</v>
       </c>
       <c r="HF4">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="HG4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="HH4">
         <v>0</v>
       </c>
       <c r="HI4">
+        <v>0</v>
+      </c>
+      <c r="HJ4">
+        <v>0</v>
+      </c>
+      <c r="HK4">
+        <v>0</v>
+      </c>
+      <c r="HL4">
+        <v>80</v>
+      </c>
+      <c r="HM4">
+        <v>0</v>
+      </c>
+      <c r="HN4">
         <v>20</v>
       </c>
-      <c r="HJ4">
-        <v>0</v>
-      </c>
-      <c r="HK4">
+      <c r="HO4">
+        <v>20</v>
+      </c>
+      <c r="HP4">
         <v>80</v>
       </c>
-      <c r="HL4">
+      <c r="HQ4">
+        <v>2.76</v>
+      </c>
+      <c r="HR4">
+        <v>0</v>
+      </c>
+      <c r="HS4">
+        <v>80</v>
+      </c>
+      <c r="HT4">
+        <v>0</v>
+      </c>
+      <c r="HU4">
+        <v>0</v>
+      </c>
+      <c r="HV4">
+        <v>0</v>
+      </c>
+      <c r="HW4">
         <v>8.561643835616438</v>
       </c>
-      <c r="HM4">
-        <v>80</v>
-      </c>
-      <c r="HN4">
-        <v>2.76</v>
-      </c>
-      <c r="HO4">
-        <v>0</v>
-      </c>
-      <c r="HP4">
-        <v>2.76</v>
-      </c>
-      <c r="HQ4">
-        <v>0</v>
-      </c>
-      <c r="HR4">
-        <v>80</v>
-      </c>
-      <c r="HS4">
-        <v>20</v>
-      </c>
-      <c r="HT4">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="HU4">
-        <v>0</v>
-      </c>
-      <c r="HV4">
-        <v>0</v>
-      </c>
-      <c r="HW4">
-        <v>0</v>
-      </c>
       <c r="HX4">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="HY4">
         <v>0</v>
       </c>
       <c r="HZ4">
+        <v>753.7434223813057</v>
+      </c>
+      <c r="IA4">
+        <v>0</v>
+      </c>
+      <c r="IB4">
+        <v>682.4556402435975</v>
+      </c>
+      <c r="IC4">
         <v>42.12328767123287</v>
-      </c>
-      <c r="IA4">
-        <v>754.1178223813056</v>
-      </c>
-      <c r="IB4">
-        <v>0.3120000000000001</v>
-      </c>
-      <c r="IC4">
-        <v>561.7818213770804</v>
       </c>
     </row>
     <row r="5" spans="1:237">
@@ -3957,25 +3957,25 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>958.4400000000001</v>
       </c>
       <c r="G5">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>217.644</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>564.0833864054583</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -3987,16 +3987,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>498.2</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>518.2</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1141.214110022743</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4008,16 +4008,16 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.3120000000000001</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>182.7741100227426</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>342.3642330068228</v>
       </c>
       <c r="Z5">
-        <v>228.5548220045486</v>
+        <v>93.91309600606469</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>255.9827400151617</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -4035,22 +4035,22 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1142.774110022743</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>752.9827400151617</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>234.7827400151617</v>
       </c>
       <c r="AJ5">
-        <v>838.8</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -4065,22 +4065,22 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>695.9361208139488</v>
+        <v>131.4783344084906</v>
       </c>
       <c r="AQ5">
-        <v>303.9741100227426</v>
+        <v>20</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>214.7827400151617</v>
       </c>
       <c r="AS5">
-        <v>301.1930960060646</v>
+        <v>0</v>
       </c>
       <c r="AT5">
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         <v>0</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BN5">
         <v>0</v>
       </c>
       <c r="BO5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -4149,19 +4149,19 @@
         <v>0</v>
       </c>
       <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>1</v>
+      </c>
+      <c r="BU5">
         <v>0.8999999999999999</v>
       </c>
-      <c r="BS5">
-        <v>0</v>
-      </c>
-      <c r="BT5">
-        <v>1.8</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
       <c r="BV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -4170,34 +4170,34 @@
         <v>0</v>
       </c>
       <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>3.166666666666667E-06</v>
+      </c>
+      <c r="CA5">
+        <v>1</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
         <v>-0</v>
       </c>
-      <c r="BZ5">
-        <v>0</v>
-      </c>
-      <c r="CA5">
-        <v>0</v>
-      </c>
-      <c r="CB5">
-        <v>0</v>
-      </c>
-      <c r="CC5">
-        <v>1</v>
-      </c>
       <c r="CD5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="CF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG5">
         <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CI5">
         <v>0</v>
@@ -4206,31 +4206,31 @@
         <v>0</v>
       </c>
       <c r="CK5">
-        <v>3.166666666666667E-06</v>
+        <v>-0</v>
       </c>
       <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
         <v>0.9999968333333333</v>
       </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
       <c r="CO5">
         <v>0</v>
       </c>
       <c r="CP5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CR5">
         <v>0</v>
       </c>
       <c r="CS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT5">
         <v>0</v>
@@ -4239,19 +4239,19 @@
         <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CW5">
         <v>0</v>
       </c>
       <c r="CX5">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="CY5">
         <v>0</v>
       </c>
       <c r="CZ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA5">
         <v>0</v>
@@ -4266,133 +4266,133 @@
         <v>0</v>
       </c>
       <c r="DE5">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="DF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG5">
         <v>-0</v>
       </c>
       <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>4.83</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5">
+        <v>0</v>
+      </c>
+      <c r="DT5">
+        <v>0</v>
+      </c>
+      <c r="DU5">
+        <v>20</v>
+      </c>
+      <c r="DV5">
+        <v>0</v>
+      </c>
+      <c r="DW5">
+        <v>20</v>
+      </c>
+      <c r="DX5">
+        <v>2.1</v>
+      </c>
+      <c r="DY5">
         <v>10.5</v>
       </c>
-      <c r="DI5">
-        <v>0</v>
-      </c>
-      <c r="DJ5">
-        <v>0</v>
-      </c>
-      <c r="DK5">
-        <v>0</v>
-      </c>
-      <c r="DL5">
-        <v>0</v>
-      </c>
-      <c r="DM5">
-        <v>0</v>
-      </c>
-      <c r="DN5">
-        <v>0</v>
-      </c>
-      <c r="DO5">
-        <v>0</v>
-      </c>
-      <c r="DP5">
-        <v>0</v>
-      </c>
-      <c r="DQ5">
+      <c r="DZ5">
+        <v>40</v>
+      </c>
+      <c r="EA5">
+        <v>40</v>
+      </c>
+      <c r="EB5">
+        <v>0</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5">
         <v>20</v>
       </c>
-      <c r="DR5">
-        <v>10</v>
-      </c>
-      <c r="DS5">
-        <v>0</v>
-      </c>
-      <c r="DT5">
+      <c r="EE5">
+        <v>10.5</v>
+      </c>
+      <c r="EF5">
+        <v>0</v>
+      </c>
+      <c r="EG5">
+        <v>0</v>
+      </c>
+      <c r="EH5">
+        <v>0</v>
+      </c>
+      <c r="EI5">
         <v>40</v>
       </c>
-      <c r="DU5">
-        <v>10</v>
-      </c>
-      <c r="DV5">
-        <v>0</v>
-      </c>
-      <c r="DW5">
-        <v>0</v>
-      </c>
-      <c r="DX5">
-        <v>0</v>
-      </c>
-      <c r="DY5">
+      <c r="EJ5">
+        <v>2.1</v>
+      </c>
+      <c r="EK5">
+        <v>0</v>
+      </c>
+      <c r="EL5">
+        <v>0</v>
+      </c>
+      <c r="EM5">
+        <v>0</v>
+      </c>
+      <c r="EN5">
+        <v>20</v>
+      </c>
+      <c r="EO5">
         <v>40</v>
       </c>
-      <c r="DZ5">
+      <c r="EP5">
+        <v>0</v>
+      </c>
+      <c r="EQ5">
+        <v>0</v>
+      </c>
+      <c r="ER5">
+        <v>0</v>
+      </c>
+      <c r="ES5">
         <v>4.83</v>
       </c>
-      <c r="EA5">
-        <v>2.1</v>
-      </c>
-      <c r="EB5">
-        <v>10</v>
-      </c>
-      <c r="EC5">
-        <v>0</v>
-      </c>
-      <c r="ED5">
-        <v>0</v>
-      </c>
-      <c r="EE5">
-        <v>0</v>
-      </c>
-      <c r="EF5">
-        <v>0</v>
-      </c>
-      <c r="EG5">
-        <v>2.1</v>
-      </c>
-      <c r="EH5">
-        <v>10</v>
-      </c>
-      <c r="EI5">
-        <v>0</v>
-      </c>
-      <c r="EJ5">
-        <v>0</v>
-      </c>
-      <c r="EK5">
-        <v>20</v>
-      </c>
-      <c r="EL5">
-        <v>0</v>
-      </c>
-      <c r="EM5">
-        <v>4.83</v>
-      </c>
-      <c r="EN5">
-        <v>40</v>
-      </c>
-      <c r="EO5">
-        <v>10.5</v>
-      </c>
-      <c r="EP5">
-        <v>0</v>
-      </c>
-      <c r="EQ5">
-        <v>0</v>
-      </c>
-      <c r="ER5">
-        <v>0</v>
-      </c>
-      <c r="ES5">
-        <v>0</v>
-      </c>
       <c r="ET5">
         <v>0</v>
       </c>
       <c r="EU5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="EV5">
         <v>0</v>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="FD5">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="FE5">
         <v>0</v>
@@ -4431,94 +4431,94 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="FH5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="FI5">
         <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="FK5">
+        <v>0</v>
+      </c>
+      <c r="FL5">
+        <v>0</v>
+      </c>
+      <c r="FM5">
+        <v>0</v>
+      </c>
+      <c r="FN5">
+        <v>0</v>
+      </c>
+      <c r="FO5">
+        <v>0</v>
+      </c>
+      <c r="FP5">
+        <v>0</v>
+      </c>
+      <c r="FQ5">
+        <v>0</v>
+      </c>
+      <c r="FR5">
+        <v>1</v>
+      </c>
+      <c r="FS5">
+        <v>0</v>
+      </c>
+      <c r="FT5">
+        <v>0</v>
+      </c>
+      <c r="FU5">
+        <v>0</v>
+      </c>
+      <c r="FV5">
+        <v>0</v>
+      </c>
+      <c r="FW5">
+        <v>0</v>
+      </c>
+      <c r="FX5">
+        <v>0</v>
+      </c>
+      <c r="FY5">
+        <v>0</v>
+      </c>
+      <c r="FZ5">
+        <v>0</v>
+      </c>
+      <c r="GA5">
+        <v>0</v>
+      </c>
+      <c r="GB5">
+        <v>0</v>
+      </c>
+      <c r="GC5">
+        <v>0</v>
+      </c>
+      <c r="GD5">
+        <v>0</v>
+      </c>
+      <c r="GE5">
+        <v>0</v>
+      </c>
+      <c r="GF5">
+        <v>0</v>
+      </c>
+      <c r="GG5">
+        <v>0</v>
+      </c>
+      <c r="GH5">
+        <v>1.56</v>
+      </c>
+      <c r="GI5">
         <v>1.2</v>
       </c>
-      <c r="FL5">
-        <v>0</v>
-      </c>
-      <c r="FM5">
-        <v>0</v>
-      </c>
-      <c r="FN5">
-        <v>0</v>
-      </c>
-      <c r="FO5">
-        <v>0</v>
-      </c>
-      <c r="FP5">
-        <v>0</v>
-      </c>
-      <c r="FQ5">
-        <v>0</v>
-      </c>
-      <c r="FR5">
-        <v>0</v>
-      </c>
-      <c r="FS5">
-        <v>0</v>
-      </c>
-      <c r="FT5">
-        <v>0</v>
-      </c>
-      <c r="FU5">
-        <v>0</v>
-      </c>
-      <c r="FV5">
-        <v>0</v>
-      </c>
-      <c r="FW5">
-        <v>0</v>
-      </c>
-      <c r="FX5">
-        <v>1</v>
-      </c>
-      <c r="FY5">
-        <v>0</v>
-      </c>
-      <c r="FZ5">
-        <v>0</v>
-      </c>
-      <c r="GA5">
-        <v>0</v>
-      </c>
-      <c r="GB5">
-        <v>0</v>
-      </c>
-      <c r="GC5">
-        <v>0</v>
-      </c>
-      <c r="GD5">
-        <v>0</v>
-      </c>
-      <c r="GE5">
-        <v>0</v>
-      </c>
-      <c r="GF5">
-        <v>0</v>
-      </c>
-      <c r="GG5">
-        <v>0</v>
-      </c>
-      <c r="GH5">
-        <v>0</v>
-      </c>
-      <c r="GI5">
-        <v>0</v>
-      </c>
       <c r="GJ5">
         <v>0</v>
       </c>
       <c r="GK5">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="GL5">
         <v>0</v>
@@ -4527,34 +4527,34 @@
         <v>0.7800000000000001</v>
       </c>
       <c r="GN5">
+        <v>0</v>
+      </c>
+      <c r="GO5">
+        <v>0</v>
+      </c>
+      <c r="GP5">
         <v>1.2</v>
       </c>
-      <c r="GO5">
-        <v>0</v>
-      </c>
-      <c r="GP5">
+      <c r="GQ5">
+        <v>0</v>
+      </c>
+      <c r="GR5">
+        <v>0</v>
+      </c>
+      <c r="GS5">
+        <v>0</v>
+      </c>
+      <c r="GT5">
+        <v>0</v>
+      </c>
+      <c r="GU5">
+        <v>0</v>
+      </c>
+      <c r="GV5">
         <v>1.56</v>
       </c>
-      <c r="GQ5">
-        <v>0</v>
-      </c>
-      <c r="GR5">
-        <v>0</v>
-      </c>
-      <c r="GS5">
-        <v>1.56</v>
-      </c>
-      <c r="GT5">
-        <v>0</v>
-      </c>
-      <c r="GU5">
-        <v>1</v>
-      </c>
-      <c r="GV5">
-        <v>0</v>
-      </c>
       <c r="GW5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX5">
         <v>0</v>
@@ -4578,79 +4578,79 @@
         <v>0</v>
       </c>
       <c r="HE5">
-        <v>0</v>
+        <v>8.561643835616438</v>
       </c>
       <c r="HF5">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="HG5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="HH5">
         <v>0</v>
       </c>
       <c r="HI5">
+        <v>0</v>
+      </c>
+      <c r="HJ5">
+        <v>0</v>
+      </c>
+      <c r="HK5">
+        <v>0</v>
+      </c>
+      <c r="HL5">
+        <v>80</v>
+      </c>
+      <c r="HM5">
+        <v>0</v>
+      </c>
+      <c r="HN5">
         <v>20</v>
       </c>
-      <c r="HJ5">
-        <v>0</v>
-      </c>
-      <c r="HK5">
+      <c r="HO5">
+        <v>20</v>
+      </c>
+      <c r="HP5">
         <v>80</v>
       </c>
-      <c r="HL5">
+      <c r="HQ5">
+        <v>2.76</v>
+      </c>
+      <c r="HR5">
+        <v>0</v>
+      </c>
+      <c r="HS5">
+        <v>0</v>
+      </c>
+      <c r="HT5">
+        <v>0</v>
+      </c>
+      <c r="HU5">
+        <v>0</v>
+      </c>
+      <c r="HV5">
+        <v>80</v>
+      </c>
+      <c r="HW5">
         <v>8.561643835616438</v>
       </c>
-      <c r="HM5">
-        <v>80</v>
-      </c>
-      <c r="HN5">
-        <v>2.76</v>
-      </c>
-      <c r="HO5">
-        <v>0</v>
-      </c>
-      <c r="HP5">
-        <v>2.76</v>
-      </c>
-      <c r="HQ5">
-        <v>0</v>
-      </c>
-      <c r="HR5">
-        <v>80</v>
-      </c>
-      <c r="HS5">
-        <v>20</v>
-      </c>
-      <c r="HT5">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="HU5">
-        <v>0</v>
-      </c>
-      <c r="HV5">
-        <v>0</v>
-      </c>
-      <c r="HW5">
-        <v>0</v>
-      </c>
       <c r="HX5">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="HY5">
         <v>0</v>
       </c>
       <c r="HZ5">
+        <v>711.641720813949</v>
+      </c>
+      <c r="IA5">
+        <v>0</v>
+      </c>
+      <c r="IB5">
+        <v>653.9213290128876</v>
+      </c>
+      <c r="IC5">
         <v>42.12328767123287</v>
-      </c>
-      <c r="IA5">
-        <v>712.0161208139489</v>
-      </c>
-      <c r="IB5">
-        <v>0.3120000000000001</v>
-      </c>
-      <c r="IC5">
-        <v>529.7479180106131</v>
       </c>
     </row>
     <row r="6" spans="1:237">
@@ -4670,25 +4670,25 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>918.4400000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>239.136</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>530.156150005193</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -4700,16 +4700,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>458.2</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>498.2</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1046.517291688304</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4721,16 +4721,16 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>128.0772916883042</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>366.2810520909065</v>
       </c>
       <c r="Z6">
-        <v>209.3034583376609</v>
+        <v>69.06061111688113</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>170.8515277922028</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -4748,22 +4748,22 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>1046.517291688304</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>670.8515277922028</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>172.6515277922028</v>
       </c>
       <c r="AJ6">
-        <v>877.24</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -4778,22 +4778,22 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>626.8410055688266</v>
+        <v>96.68485556363359</v>
       </c>
       <c r="AQ6">
-        <v>169.2772916883042</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>172.6515277922028</v>
       </c>
       <c r="AS6">
-        <v>268.3406111168811</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6">
         <v>0</v>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BK6">
         <v>0</v>
@@ -4847,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="BM6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BN6">
         <v>0</v>
       </c>
       <c r="BO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP6">
         <v>0</v>
@@ -4862,19 +4862,19 @@
         <v>0</v>
       </c>
       <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>1</v>
+      </c>
+      <c r="BU6">
         <v>0.8999999999999999</v>
       </c>
-      <c r="BS6">
-        <v>0</v>
-      </c>
-      <c r="BT6">
-        <v>1.8</v>
-      </c>
-      <c r="BU6">
-        <v>1.8</v>
-      </c>
       <c r="BV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -4883,227 +4883,227 @@
         <v>0</v>
       </c>
       <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>3.166666666666667E-06</v>
+      </c>
+      <c r="CA6">
+        <v>1</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
         <v>-0</v>
       </c>
-      <c r="BZ6">
-        <v>0</v>
-      </c>
-      <c r="CA6">
-        <v>0</v>
-      </c>
-      <c r="CB6">
-        <v>0</v>
-      </c>
-      <c r="CC6">
-        <v>1</v>
-      </c>
       <c r="CD6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="CF6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG6">
         <v>0</v>
       </c>
       <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>-0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0.9999968333333333</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>19</v>
+      </c>
+      <c r="CQ6">
         <v>0.3</v>
       </c>
-      <c r="CI6">
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>1</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="CW6">
+        <v>3.166666666666667E-06</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>19</v>
+      </c>
+      <c r="DD6">
+        <v>1</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0.9999968333333333</v>
+      </c>
+      <c r="DG6">
         <v>-0</v>
       </c>
-      <c r="CJ6">
-        <v>0</v>
-      </c>
-      <c r="CK6">
-        <v>3.166666666666667E-06</v>
-      </c>
-      <c r="CL6">
-        <v>0.9999968333333333</v>
-      </c>
-      <c r="CM6">
-        <v>0</v>
-      </c>
-      <c r="CN6">
-        <v>0</v>
-      </c>
-      <c r="CO6">
-        <v>3.166666666666667E-06</v>
-      </c>
-      <c r="CP6">
-        <v>0</v>
-      </c>
-      <c r="CQ6">
-        <v>0</v>
-      </c>
-      <c r="CR6">
-        <v>1</v>
-      </c>
-      <c r="CS6">
-        <v>0</v>
-      </c>
-      <c r="CT6">
-        <v>0</v>
-      </c>
-      <c r="CU6">
-        <v>19</v>
-      </c>
-      <c r="CV6">
-        <v>0.3</v>
-      </c>
-      <c r="CW6">
-        <v>0</v>
-      </c>
-      <c r="CX6">
-        <v>1</v>
-      </c>
-      <c r="CY6">
-        <v>0</v>
-      </c>
-      <c r="CZ6">
-        <v>0.9999968333333333</v>
-      </c>
-      <c r="DA6">
-        <v>0</v>
-      </c>
-      <c r="DB6">
-        <v>0</v>
-      </c>
-      <c r="DC6">
-        <v>0.05277777777777776</v>
-      </c>
-      <c r="DD6">
-        <v>19</v>
-      </c>
-      <c r="DE6">
-        <v>-0</v>
-      </c>
-      <c r="DF6">
-        <v>0</v>
-      </c>
-      <c r="DG6">
-        <v>0</v>
-      </c>
       <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>20</v>
+      </c>
+      <c r="DL6">
+        <v>4.83</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
+        <v>0</v>
+      </c>
+      <c r="DT6">
+        <v>0</v>
+      </c>
+      <c r="DU6">
+        <v>20</v>
+      </c>
+      <c r="DV6">
+        <v>0</v>
+      </c>
+      <c r="DW6">
+        <v>0</v>
+      </c>
+      <c r="DX6">
+        <v>2.1</v>
+      </c>
+      <c r="DY6">
         <v>10.5</v>
       </c>
-      <c r="DI6">
-        <v>0</v>
-      </c>
-      <c r="DJ6">
-        <v>0</v>
-      </c>
-      <c r="DK6">
-        <v>0</v>
-      </c>
-      <c r="DL6">
-        <v>0</v>
-      </c>
-      <c r="DM6">
-        <v>0</v>
-      </c>
-      <c r="DN6">
-        <v>0</v>
-      </c>
-      <c r="DO6">
-        <v>0</v>
-      </c>
-      <c r="DP6">
-        <v>0</v>
-      </c>
-      <c r="DQ6">
+      <c r="DZ6">
+        <v>40</v>
+      </c>
+      <c r="EA6">
+        <v>40</v>
+      </c>
+      <c r="EB6">
+        <v>0</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
+      </c>
+      <c r="ED6">
         <v>20</v>
       </c>
-      <c r="DR6">
-        <v>10</v>
-      </c>
-      <c r="DS6">
-        <v>0</v>
-      </c>
-      <c r="DT6">
+      <c r="EE6">
+        <v>10.5</v>
+      </c>
+      <c r="EF6">
+        <v>0</v>
+      </c>
+      <c r="EG6">
+        <v>0</v>
+      </c>
+      <c r="EH6">
+        <v>0</v>
+      </c>
+      <c r="EI6">
+        <v>0</v>
+      </c>
+      <c r="EJ6">
+        <v>2.1</v>
+      </c>
+      <c r="EK6">
+        <v>0</v>
+      </c>
+      <c r="EL6">
+        <v>0</v>
+      </c>
+      <c r="EM6">
+        <v>0</v>
+      </c>
+      <c r="EN6">
+        <v>0</v>
+      </c>
+      <c r="EO6">
         <v>40</v>
       </c>
-      <c r="DU6">
-        <v>10</v>
-      </c>
-      <c r="DV6">
-        <v>0</v>
-      </c>
-      <c r="DW6">
-        <v>0</v>
-      </c>
-      <c r="DX6">
-        <v>0</v>
-      </c>
-      <c r="DY6">
+      <c r="EP6">
         <v>40</v>
       </c>
-      <c r="DZ6">
+      <c r="EQ6">
+        <v>0</v>
+      </c>
+      <c r="ER6">
+        <v>0</v>
+      </c>
+      <c r="ES6">
         <v>4.83</v>
       </c>
-      <c r="EA6">
-        <v>2.1</v>
-      </c>
-      <c r="EB6">
-        <v>10</v>
-      </c>
-      <c r="EC6">
-        <v>0</v>
-      </c>
-      <c r="ED6">
-        <v>0</v>
-      </c>
-      <c r="EE6">
-        <v>0</v>
-      </c>
-      <c r="EF6">
-        <v>40</v>
-      </c>
-      <c r="EG6">
-        <v>2.1</v>
-      </c>
-      <c r="EH6">
-        <v>10</v>
-      </c>
-      <c r="EI6">
-        <v>0</v>
-      </c>
-      <c r="EJ6">
-        <v>0</v>
-      </c>
-      <c r="EK6">
+      <c r="ET6">
         <v>20</v>
       </c>
-      <c r="EL6">
-        <v>0</v>
-      </c>
-      <c r="EM6">
-        <v>4.83</v>
-      </c>
-      <c r="EN6">
-        <v>40</v>
-      </c>
-      <c r="EO6">
-        <v>10.5</v>
-      </c>
-      <c r="EP6">
-        <v>0</v>
-      </c>
-      <c r="EQ6">
-        <v>0</v>
-      </c>
-      <c r="ER6">
-        <v>0</v>
-      </c>
-      <c r="ES6">
-        <v>0</v>
-      </c>
-      <c r="ET6">
-        <v>0</v>
-      </c>
       <c r="EU6">
         <v>0</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="FD6">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="FE6">
         <v>0</v>
@@ -5144,91 +5144,91 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="FH6">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="FI6">
         <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="FK6">
+        <v>0</v>
+      </c>
+      <c r="FL6">
+        <v>0</v>
+      </c>
+      <c r="FM6">
+        <v>0</v>
+      </c>
+      <c r="FN6">
+        <v>0</v>
+      </c>
+      <c r="FO6">
+        <v>0</v>
+      </c>
+      <c r="FP6">
+        <v>0</v>
+      </c>
+      <c r="FQ6">
+        <v>0</v>
+      </c>
+      <c r="FR6">
+        <v>1</v>
+      </c>
+      <c r="FS6">
+        <v>0</v>
+      </c>
+      <c r="FT6">
+        <v>0</v>
+      </c>
+      <c r="FU6">
+        <v>0</v>
+      </c>
+      <c r="FV6">
+        <v>0</v>
+      </c>
+      <c r="FW6">
+        <v>0</v>
+      </c>
+      <c r="FX6">
+        <v>0</v>
+      </c>
+      <c r="FY6">
+        <v>0</v>
+      </c>
+      <c r="FZ6">
+        <v>0</v>
+      </c>
+      <c r="GA6">
+        <v>0</v>
+      </c>
+      <c r="GB6">
+        <v>0</v>
+      </c>
+      <c r="GC6">
+        <v>0</v>
+      </c>
+      <c r="GD6">
+        <v>0</v>
+      </c>
+      <c r="GE6">
+        <v>0</v>
+      </c>
+      <c r="GF6">
+        <v>0</v>
+      </c>
+      <c r="GG6">
+        <v>0</v>
+      </c>
+      <c r="GH6">
+        <v>1.56</v>
+      </c>
+      <c r="GI6">
         <v>1.2</v>
       </c>
-      <c r="FL6">
-        <v>0</v>
-      </c>
-      <c r="FM6">
-        <v>0</v>
-      </c>
-      <c r="FN6">
-        <v>0</v>
-      </c>
-      <c r="FO6">
-        <v>0</v>
-      </c>
-      <c r="FP6">
-        <v>0</v>
-      </c>
-      <c r="FQ6">
-        <v>0</v>
-      </c>
-      <c r="FR6">
-        <v>0</v>
-      </c>
-      <c r="FS6">
-        <v>0</v>
-      </c>
-      <c r="FT6">
-        <v>0</v>
-      </c>
-      <c r="FU6">
-        <v>0</v>
-      </c>
-      <c r="FV6">
-        <v>0</v>
-      </c>
-      <c r="FW6">
-        <v>0</v>
-      </c>
-      <c r="FX6">
-        <v>1</v>
-      </c>
-      <c r="FY6">
-        <v>0</v>
-      </c>
-      <c r="FZ6">
-        <v>0</v>
-      </c>
-      <c r="GA6">
-        <v>0</v>
-      </c>
-      <c r="GB6">
-        <v>0</v>
-      </c>
-      <c r="GC6">
-        <v>0</v>
-      </c>
-      <c r="GD6">
-        <v>0</v>
-      </c>
-      <c r="GE6">
-        <v>0</v>
-      </c>
-      <c r="GF6">
-        <v>0</v>
-      </c>
-      <c r="GG6">
-        <v>0</v>
-      </c>
-      <c r="GH6">
-        <v>0</v>
-      </c>
-      <c r="GI6">
-        <v>0</v>
-      </c>
       <c r="GJ6">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="GK6">
         <v>0</v>
@@ -5240,34 +5240,34 @@
         <v>0.7800000000000001</v>
       </c>
       <c r="GN6">
+        <v>0</v>
+      </c>
+      <c r="GO6">
+        <v>0</v>
+      </c>
+      <c r="GP6">
         <v>1.2</v>
       </c>
-      <c r="GO6">
+      <c r="GQ6">
+        <v>0</v>
+      </c>
+      <c r="GR6">
+        <v>0</v>
+      </c>
+      <c r="GS6">
+        <v>0</v>
+      </c>
+      <c r="GT6">
+        <v>0</v>
+      </c>
+      <c r="GU6">
+        <v>0</v>
+      </c>
+      <c r="GV6">
         <v>1.56</v>
       </c>
-      <c r="GP6">
-        <v>0</v>
-      </c>
-      <c r="GQ6">
-        <v>0</v>
-      </c>
-      <c r="GR6">
-        <v>0</v>
-      </c>
-      <c r="GS6">
-        <v>1.56</v>
-      </c>
-      <c r="GT6">
-        <v>0</v>
-      </c>
-      <c r="GU6">
-        <v>1</v>
-      </c>
-      <c r="GV6">
-        <v>0</v>
-      </c>
       <c r="GW6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX6">
         <v>0</v>
@@ -5291,79 +5291,79 @@
         <v>0</v>
       </c>
       <c r="HE6">
-        <v>0</v>
+        <v>8.561643835616438</v>
       </c>
       <c r="HF6">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="HG6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="HH6">
         <v>0</v>
       </c>
       <c r="HI6">
+        <v>0</v>
+      </c>
+      <c r="HJ6">
+        <v>0</v>
+      </c>
+      <c r="HK6">
+        <v>0</v>
+      </c>
+      <c r="HL6">
+        <v>80</v>
+      </c>
+      <c r="HM6">
+        <v>0</v>
+      </c>
+      <c r="HN6">
         <v>20</v>
       </c>
-      <c r="HJ6">
-        <v>0</v>
-      </c>
-      <c r="HK6">
+      <c r="HO6">
+        <v>20</v>
+      </c>
+      <c r="HP6">
         <v>80</v>
       </c>
-      <c r="HL6">
+      <c r="HQ6">
+        <v>2.76</v>
+      </c>
+      <c r="HR6">
+        <v>0</v>
+      </c>
+      <c r="HS6">
+        <v>0</v>
+      </c>
+      <c r="HT6">
+        <v>0</v>
+      </c>
+      <c r="HU6">
+        <v>0</v>
+      </c>
+      <c r="HV6">
+        <v>80</v>
+      </c>
+      <c r="HW6">
         <v>8.561643835616438</v>
       </c>
-      <c r="HM6">
-        <v>80</v>
-      </c>
-      <c r="HN6">
-        <v>2.76</v>
-      </c>
-      <c r="HO6">
-        <v>0</v>
-      </c>
-      <c r="HP6">
-        <v>2.76</v>
-      </c>
-      <c r="HQ6">
-        <v>0</v>
-      </c>
-      <c r="HR6">
-        <v>80</v>
-      </c>
-      <c r="HS6">
-        <v>20</v>
-      </c>
-      <c r="HT6">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="HU6">
-        <v>0</v>
-      </c>
-      <c r="HV6">
-        <v>0</v>
-      </c>
-      <c r="HW6">
-        <v>0</v>
-      </c>
       <c r="HX6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="HY6">
         <v>0</v>
       </c>
       <c r="HZ6">
+        <v>642.9737833466044</v>
+      </c>
+      <c r="IA6">
+        <v>0</v>
+      </c>
+      <c r="IB6">
+        <v>674.4776632077876</v>
+      </c>
+      <c r="IC6">
         <v>42.12328767123287</v>
-      </c>
-      <c r="IA6">
-        <v>642.9737833466044</v>
-      </c>
-      <c r="IB6">
-        <v>0</v>
-      </c>
-      <c r="IC6">
-        <v>477.644069454542</v>
       </c>
     </row>
   </sheetData>
